--- a/aug_pc_result/data_augment.xlsx
+++ b/aug_pc_result/data_augment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CausalLearning\code\aug_pc_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659D6CFE-A65D-490A-AEBB-6F5152BAABCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E072859D-2625-4DEB-9DFD-EE6116EADF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kci" sheetId="1" r:id="rId1"/>
@@ -3552,8 +3552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3566,17 +3566,16 @@
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
     <col min="7" max="7" width="23.08203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.1640625" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" customWidth="1"/>
-    <col min="11" max="11" width="15.58203125" customWidth="1"/>
-    <col min="12" max="12" width="20.9140625" customWidth="1"/>
-    <col min="13" max="14" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" customWidth="1"/>
-    <col min="16" max="16" width="11.08203125" customWidth="1"/>
-    <col min="17" max="18" width="12.1640625" customWidth="1"/>
-    <col min="19" max="22" width="11.08203125" customWidth="1"/>
-    <col min="23" max="23" width="12.1640625" customWidth="1"/>
-    <col min="24" max="24" width="11.33203125" customWidth="1"/>
+    <col min="9" max="10" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.58203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="20.9140625" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="11.08203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.08203125" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="19" max="22" width="11.08203125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="8.9140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.4140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5.1640625" hidden="1" customWidth="1"/>
@@ -9324,11 +9323,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1580F763-1068-4458-98B2-DF0FB3B79945}">
   <dimension ref="A1:Z72"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A2:Z4"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="AD54" sqref="AD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="24" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">

--- a/aug_pc_result/data_augment.xlsx
+++ b/aug_pc_result/data_augment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CausalLearning\code\aug_pc_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E072859D-2625-4DEB-9DFD-EE6116EADF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FC2783-5E50-42EC-9C51-4827ABF116A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kci" sheetId="1" r:id="rId1"/>
@@ -3552,8 +3552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE120"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3566,16 +3566,16 @@
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
     <col min="7" max="7" width="23.08203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.1640625" customWidth="1"/>
-    <col min="9" max="10" width="12.1640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.58203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="20.9140625" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="11.08203125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.08203125" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="12.1640625" hidden="1" customWidth="1"/>
-    <col min="19" max="22" width="11.08203125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="12.1640625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="12.1640625" customWidth="1"/>
+    <col min="11" max="11" width="15.58203125" customWidth="1"/>
+    <col min="12" max="12" width="20.9140625" customWidth="1"/>
+    <col min="13" max="14" width="11.08203125" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" customWidth="1"/>
+    <col min="16" max="16" width="11.08203125" customWidth="1"/>
+    <col min="17" max="18" width="12.1640625" customWidth="1"/>
+    <col min="19" max="22" width="11.08203125" customWidth="1"/>
+    <col min="23" max="23" width="12.1640625" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" customWidth="1"/>
     <col min="25" max="25" width="8.9140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.4140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5.1640625" hidden="1" customWidth="1"/>
@@ -8204,6 +8204,32 @@
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
       <c r="AA50" s="4" t="s">
         <v>50</v>
       </c>
@@ -8221,6 +8247,32 @@
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
       <c r="AA51" s="4" t="s">
         <v>50</v>
       </c>
@@ -8238,6 +8290,32 @@
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
       <c r="AA52" s="4" t="s">
         <v>50</v>
       </c>
@@ -8255,6 +8333,32 @@
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
       <c r="AA53" s="4" t="s">
         <v>50</v>
       </c>
@@ -8272,6 +8376,32 @@
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4"/>
       <c r="AA54" s="4" t="s">
         <v>50</v>
       </c>
@@ -8289,6 +8419,32 @@
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
       <c r="AA55" s="4" t="s">
         <v>50</v>
       </c>
@@ -8306,6 +8462,32 @@
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
       <c r="AA56" s="4" t="s">
         <v>50</v>
       </c>
@@ -8323,6 +8505,32 @@
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
       <c r="AA57" s="4" t="s">
         <v>50</v>
       </c>
@@ -8340,6 +8548,32 @@
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
       <c r="AA58" s="4" t="s">
         <v>50</v>
       </c>
@@ -8357,6 +8591,32 @@
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4"/>
       <c r="AA59" s="4" t="s">
         <v>50</v>
       </c>
@@ -8374,6 +8634,32 @@
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4"/>
       <c r="AA60" s="4" t="s">
         <v>50</v>
       </c>
@@ -8391,6 +8677,32 @@
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
       <c r="AA61" s="4" t="s">
         <v>50</v>
       </c>
@@ -8408,6 +8720,32 @@
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4"/>
       <c r="AA62" s="4" t="s">
         <v>50</v>
       </c>
@@ -8422,6 +8760,32 @@
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
       <c r="AA63" s="4" t="s">
         <v>50</v>
       </c>
@@ -8436,6 +8800,32 @@
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4"/>
       <c r="AA64" s="4" t="s">
         <v>50</v>
       </c>
@@ -8449,7 +8839,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
       <c r="AA65" s="4" t="s">
         <v>50</v>
       </c>
@@ -8463,7 +8879,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
       <c r="AA66" s="4" t="s">
         <v>50</v>
       </c>
@@ -8477,7 +8919,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4"/>
       <c r="AA67" s="4" t="s">
         <v>50</v>
       </c>
@@ -8491,7 +8959,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="4"/>
       <c r="AA68" s="4" t="s">
         <v>50</v>
       </c>
@@ -8505,7 +8999,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+      <c r="X69" s="4"/>
+      <c r="Y69" s="4"/>
+      <c r="Z69" s="4"/>
       <c r="AA69" s="4" t="s">
         <v>50</v>
       </c>
@@ -8519,7 +9039,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
       <c r="AA70" s="4" t="s">
         <v>50</v>
       </c>
@@ -8533,7 +9079,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
       <c r="AA71" s="4" t="s">
         <v>50</v>
       </c>
@@ -8547,7 +9119,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
       <c r="AA72" s="4" t="s">
         <v>50</v>
       </c>
@@ -8561,7 +9159,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4"/>
       <c r="AA73" s="4" t="s">
         <v>50</v>
       </c>
@@ -8575,7 +9199,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AA74" s="4" t="s">
         <v>50</v>
       </c>
@@ -8592,7 +9216,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AA75" s="4" t="s">
         <v>50</v>
       </c>
@@ -8609,7 +9233,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AA76" s="4" t="s">
         <v>50</v>
       </c>
@@ -8626,7 +9250,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AA77" s="4" t="s">
         <v>50</v>
       </c>
@@ -8643,7 +9267,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AA78" s="4" t="s">
         <v>50</v>
       </c>
@@ -8660,7 +9284,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AA79" s="4" t="s">
         <v>50</v>
       </c>
@@ -8677,7 +9301,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AA80" s="4" t="s">
         <v>50</v>
       </c>
@@ -9321,18 +9945,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1580F763-1068-4458-98B2-DF0FB3B79945}">
-  <dimension ref="A1:Z72"/>
+  <dimension ref="A1:AD96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="AD54" sqref="AD54"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z73" sqref="A73:Z96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="24" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.9140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.9140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.08203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="2.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9411,8 +10058,12 @@
       <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -9491,8 +10142,12 @@
       <c r="Z2" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
@@ -9571,8 +10226,12 @@
       <c r="Z3" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -9651,8 +10310,12 @@
       <c r="Z4" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -9731,8 +10394,12 @@
       <c r="Z5" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
@@ -9811,8 +10478,12 @@
       <c r="Z6" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -9891,8 +10562,12 @@
       <c r="Z7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>67</v>
       </c>
@@ -9971,8 +10646,12 @@
       <c r="Z8" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>67</v>
       </c>
@@ -10051,8 +10730,12 @@
       <c r="Z9" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>67</v>
       </c>
@@ -10131,8 +10814,12 @@
       <c r="Z10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>67</v>
       </c>
@@ -10211,8 +10898,12 @@
       <c r="Z11" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>67</v>
       </c>
@@ -10291,8 +10982,12 @@
       <c r="Z12" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>67</v>
       </c>
@@ -10371,8 +11066,12 @@
       <c r="Z13" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
@@ -10451,8 +11150,12 @@
       <c r="Z14" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
@@ -10531,8 +11234,12 @@
       <c r="Z15" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -10611,8 +11318,12 @@
       <c r="Z16" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
@@ -10691,8 +11402,12 @@
       <c r="Z17" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
@@ -10771,8 +11486,12 @@
       <c r="Z18" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -10851,8 +11570,12 @@
       <c r="Z19" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>67</v>
       </c>
@@ -10931,8 +11654,12 @@
       <c r="Z20" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>67</v>
       </c>
@@ -11011,8 +11738,12 @@
       <c r="Z21" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>67</v>
       </c>
@@ -11091,8 +11822,12 @@
       <c r="Z22" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>67</v>
       </c>
@@ -11171,8 +11906,12 @@
       <c r="Z23" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>67</v>
       </c>
@@ -11251,8 +11990,12 @@
       <c r="Z24" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>67</v>
       </c>
@@ -11331,8 +12074,12 @@
       <c r="Z25" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
@@ -11411,8 +12158,12 @@
       <c r="Z26" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
@@ -11491,8 +12242,12 @@
       <c r="Z27" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>67</v>
       </c>
@@ -11571,8 +12326,12 @@
       <c r="Z28" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>67</v>
       </c>
@@ -11651,8 +12410,12 @@
       <c r="Z29" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
@@ -11731,8 +12494,12 @@
       <c r="Z30" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
@@ -11811,8 +12578,12 @@
       <c r="Z31" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -11891,8 +12662,12 @@
       <c r="Z32" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>30</v>
       </c>
@@ -11971,8 +12746,12 @@
       <c r="Z33" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>67</v>
       </c>
@@ -12051,8 +12830,12 @@
       <c r="Z34" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>67</v>
       </c>
@@ -12131,8 +12914,12 @@
       <c r="Z35" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>67</v>
       </c>
@@ -12211,8 +12998,12 @@
       <c r="Z36" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>67</v>
       </c>
@@ -12291,8 +13082,12 @@
       <c r="Z37" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>30</v>
       </c>
@@ -12371,8 +13166,12 @@
       <c r="Z38" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>30</v>
       </c>
@@ -12451,8 +13250,12 @@
       <c r="Z39" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>30</v>
       </c>
@@ -12531,8 +13334,12 @@
       <c r="Z40" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>30</v>
       </c>
@@ -12611,8 +13418,12 @@
       <c r="Z41" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>30</v>
       </c>
@@ -12691,8 +13502,12 @@
       <c r="Z42" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>30</v>
       </c>
@@ -12771,8 +13586,12 @@
       <c r="Z43" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>67</v>
       </c>
@@ -12851,8 +13670,12 @@
       <c r="Z44" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>67</v>
       </c>
@@ -12931,8 +13754,12 @@
       <c r="Z45" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>67</v>
       </c>
@@ -13011,8 +13838,12 @@
       <c r="Z46" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>67</v>
       </c>
@@ -13091,8 +13922,12 @@
       <c r="Z47" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>67</v>
       </c>
@@ -13171,8 +14006,12 @@
       <c r="Z48" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="4"/>
+      <c r="AC48" s="4"/>
+      <c r="AD48" s="4"/>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>67</v>
       </c>
@@ -13251,8 +14090,12 @@
       <c r="Z49" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>30</v>
       </c>
@@ -13331,8 +14174,12 @@
       <c r="Z50" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA50" s="4"/>
+      <c r="AB50" s="4"/>
+      <c r="AC50" s="4"/>
+      <c r="AD50" s="4"/>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>30</v>
       </c>
@@ -13411,8 +14258,12 @@
       <c r="Z51" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="4"/>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>67</v>
       </c>
@@ -13491,8 +14342,12 @@
       <c r="Z52" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="4"/>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>67</v>
       </c>
@@ -13571,8 +14426,12 @@
       <c r="Z53" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="4"/>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>30</v>
       </c>
@@ -13651,8 +14510,12 @@
       <c r="Z54" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA54" s="4"/>
+      <c r="AB54" s="4"/>
+      <c r="AC54" s="4"/>
+      <c r="AD54" s="4"/>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>30</v>
       </c>
@@ -13731,8 +14594,12 @@
       <c r="Z55" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA55" s="4"/>
+      <c r="AB55" s="4"/>
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="4"/>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>30</v>
       </c>
@@ -13811,8 +14678,12 @@
       <c r="Z56" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA56" s="4"/>
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="4"/>
+      <c r="AD56" s="4"/>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>30</v>
       </c>
@@ -13891,8 +14762,12 @@
       <c r="Z57" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="4"/>
+      <c r="AC57" s="4"/>
+      <c r="AD57" s="4"/>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>67</v>
       </c>
@@ -13971,8 +14846,12 @@
       <c r="Z58" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA58" s="4"/>
+      <c r="AB58" s="4"/>
+      <c r="AC58" s="4"/>
+      <c r="AD58" s="4"/>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>67</v>
       </c>
@@ -14051,8 +14930,12 @@
       <c r="Z59" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA59" s="4"/>
+      <c r="AB59" s="4"/>
+      <c r="AC59" s="4"/>
+      <c r="AD59" s="4"/>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>67</v>
       </c>
@@ -14131,8 +15014,12 @@
       <c r="Z60" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA60" s="4"/>
+      <c r="AB60" s="4"/>
+      <c r="AC60" s="4"/>
+      <c r="AD60" s="4"/>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>67</v>
       </c>
@@ -14211,8 +15098,12 @@
       <c r="Z61" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA61" s="4"/>
+      <c r="AB61" s="4"/>
+      <c r="AC61" s="4"/>
+      <c r="AD61" s="4"/>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>30</v>
       </c>
@@ -14291,8 +15182,12 @@
       <c r="Z62" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA62" s="4"/>
+      <c r="AB62" s="4"/>
+      <c r="AC62" s="4"/>
+      <c r="AD62" s="4"/>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>30</v>
       </c>
@@ -14371,8 +15266,12 @@
       <c r="Z63" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA63" s="4"/>
+      <c r="AB63" s="4"/>
+      <c r="AC63" s="4"/>
+      <c r="AD63" s="4"/>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>30</v>
       </c>
@@ -14451,8 +15350,12 @@
       <c r="Z64" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA64" s="4"/>
+      <c r="AB64" s="4"/>
+      <c r="AC64" s="4"/>
+      <c r="AD64" s="4"/>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>30</v>
       </c>
@@ -14531,8 +15434,12 @@
       <c r="Z65" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA65" s="4"/>
+      <c r="AB65" s="4"/>
+      <c r="AC65" s="4"/>
+      <c r="AD65" s="4"/>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>30</v>
       </c>
@@ -14611,8 +15518,12 @@
       <c r="Z66" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA66" s="4"/>
+      <c r="AB66" s="4"/>
+      <c r="AC66" s="4"/>
+      <c r="AD66" s="4"/>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>30</v>
       </c>
@@ -14691,8 +15602,12 @@
       <c r="Z67" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA67" s="4"/>
+      <c r="AB67" s="4"/>
+      <c r="AC67" s="4"/>
+      <c r="AD67" s="4"/>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>67</v>
       </c>
@@ -14771,8 +15686,12 @@
       <c r="Z68" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA68" s="4"/>
+      <c r="AB68" s="4"/>
+      <c r="AC68" s="4"/>
+      <c r="AD68" s="4"/>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>67</v>
       </c>
@@ -14851,8 +15770,12 @@
       <c r="Z69" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA69" s="4"/>
+      <c r="AB69" s="4"/>
+      <c r="AC69" s="4"/>
+      <c r="AD69" s="4"/>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>67</v>
       </c>
@@ -14931,8 +15854,12 @@
       <c r="Z70" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA70" s="4"/>
+      <c r="AB70" s="4"/>
+      <c r="AC70" s="4"/>
+      <c r="AD70" s="4"/>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>67</v>
       </c>
@@ -15011,8 +15938,12 @@
       <c r="Z71" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA71" s="4"/>
+      <c r="AB71" s="4"/>
+      <c r="AC71" s="4"/>
+      <c r="AD71" s="4"/>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>67</v>
       </c>
@@ -15091,6 +16022,154 @@
       <c r="Z72" s="4">
         <v>150</v>
       </c>
+      <c r="AA72" s="4"/>
+      <c r="AB72" s="4"/>
+      <c r="AC72" s="4"/>
+      <c r="AD72" s="4"/>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AA73" s="4"/>
+      <c r="AB73" s="4"/>
+      <c r="AC73" s="4"/>
+      <c r="AD73" s="4"/>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AA74" s="4"/>
+      <c r="AB74" s="4"/>
+      <c r="AC74" s="4"/>
+      <c r="AD74" s="4"/>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AA75" s="4"/>
+      <c r="AB75" s="4"/>
+      <c r="AC75" s="4"/>
+      <c r="AD75" s="4"/>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AA76" s="4"/>
+      <c r="AB76" s="4"/>
+      <c r="AC76" s="4"/>
+      <c r="AD76" s="4"/>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AA77" s="4"/>
+      <c r="AB77" s="4"/>
+      <c r="AC77" s="4"/>
+      <c r="AD77" s="4"/>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AA78" s="4"/>
+      <c r="AB78" s="4"/>
+      <c r="AC78" s="4"/>
+      <c r="AD78" s="4"/>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AA79" s="4"/>
+      <c r="AB79" s="4"/>
+      <c r="AC79" s="4"/>
+      <c r="AD79" s="4"/>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AA80" s="4"/>
+      <c r="AB80" s="4"/>
+      <c r="AC80" s="4"/>
+      <c r="AD80" s="4"/>
+    </row>
+    <row r="81" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AA81" s="4"/>
+      <c r="AB81" s="4"/>
+      <c r="AC81" s="4"/>
+      <c r="AD81" s="4"/>
+    </row>
+    <row r="82" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AA82" s="4"/>
+      <c r="AB82" s="4"/>
+      <c r="AC82" s="4"/>
+      <c r="AD82" s="4"/>
+    </row>
+    <row r="83" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AA83" s="4"/>
+      <c r="AB83" s="4"/>
+      <c r="AC83" s="4"/>
+      <c r="AD83" s="4"/>
+    </row>
+    <row r="84" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AA84" s="4"/>
+      <c r="AB84" s="4"/>
+      <c r="AC84" s="4"/>
+      <c r="AD84" s="4"/>
+    </row>
+    <row r="85" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AA85" s="4"/>
+      <c r="AB85" s="4"/>
+      <c r="AC85" s="4"/>
+      <c r="AD85" s="4"/>
+    </row>
+    <row r="86" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AA86" s="4"/>
+      <c r="AB86" s="4"/>
+      <c r="AC86" s="4"/>
+      <c r="AD86" s="4"/>
+    </row>
+    <row r="87" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AA87" s="4"/>
+      <c r="AB87" s="4"/>
+      <c r="AC87" s="4"/>
+      <c r="AD87" s="4"/>
+    </row>
+    <row r="88" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AA88" s="4"/>
+      <c r="AB88" s="4"/>
+      <c r="AC88" s="4"/>
+      <c r="AD88" s="4"/>
+    </row>
+    <row r="89" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AA89" s="4"/>
+      <c r="AB89" s="4"/>
+      <c r="AC89" s="4"/>
+      <c r="AD89" s="4"/>
+    </row>
+    <row r="90" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AA90" s="4"/>
+      <c r="AB90" s="4"/>
+      <c r="AC90" s="4"/>
+      <c r="AD90" s="4"/>
+    </row>
+    <row r="91" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AA91" s="4"/>
+      <c r="AB91" s="4"/>
+      <c r="AC91" s="4"/>
+      <c r="AD91" s="4"/>
+    </row>
+    <row r="92" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AA92" s="4"/>
+      <c r="AB92" s="4"/>
+      <c r="AC92" s="4"/>
+      <c r="AD92" s="4"/>
+    </row>
+    <row r="93" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AA93" s="4"/>
+      <c r="AB93" s="4"/>
+      <c r="AC93" s="4"/>
+      <c r="AD93" s="4"/>
+    </row>
+    <row r="94" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AA94" s="4"/>
+      <c r="AB94" s="4"/>
+      <c r="AC94" s="4"/>
+      <c r="AD94" s="4"/>
+    </row>
+    <row r="95" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AA95" s="4"/>
+      <c r="AB95" s="4"/>
+      <c r="AC95" s="4"/>
+      <c r="AD95" s="4"/>
+    </row>
+    <row r="96" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AA96" s="4"/>
+      <c r="AB96" s="4"/>
+      <c r="AC96" s="4"/>
+      <c r="AD96" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/aug_pc_result/data_augment.xlsx
+++ b/aug_pc_result/data_augment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CausalLearning\code\aug_pc_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FC2783-5E50-42EC-9C51-4827ABF116A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D9C1DB-E143-4045-B2B7-5E5F95E10F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3104" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="1195">
   <si>
     <t>noise</t>
   </si>
@@ -3174,6 +3174,447 @@
   </si>
   <si>
     <t>3.781(0.809)</t>
+  </si>
+  <si>
+    <t>2.688(1.308)</t>
+  </si>
+  <si>
+    <t>4.438(2.181)</t>
+  </si>
+  <si>
+    <t>0.112(0.054)</t>
+  </si>
+  <si>
+    <t>0.185(0.091)</t>
+  </si>
+  <si>
+    <t>0.835(0.089)</t>
+  </si>
+  <si>
+    <t>0.0(0.0)</t>
+  </si>
+  <si>
+    <t>10.859(1.153)</t>
+  </si>
+  <si>
+    <t>0.234(0.427)</t>
+  </si>
+  <si>
+    <t>2.141(1.153)</t>
+  </si>
+  <si>
+    <t>1211.766(0.427)</t>
+  </si>
+  <si>
+    <t>0.98(0.037)</t>
+  </si>
+  <si>
+    <t>0.899(0.055)</t>
+  </si>
+  <si>
+    <t>0.998(0.001)</t>
+  </si>
+  <si>
+    <t>0.165(0.002)</t>
+  </si>
+  <si>
+    <t>4.0(1.425)</t>
+  </si>
+  <si>
+    <t>6.719(2.236)</t>
+  </si>
+  <si>
+    <t>0.167(0.059)</t>
+  </si>
+  <si>
+    <t>0.28(0.093)</t>
+  </si>
+  <si>
+    <t>0.716(0.097)</t>
+  </si>
+  <si>
+    <t>9.312(1.258)</t>
+  </si>
+  <si>
+    <t>0.047(0.213)</t>
+  </si>
+  <si>
+    <t>3.688(1.258)</t>
+  </si>
+  <si>
+    <t>1211.953(0.213)</t>
+  </si>
+  <si>
+    <t>0.995(0.022)</t>
+  </si>
+  <si>
+    <t>0.829(0.067)</t>
+  </si>
+  <si>
+    <t>0.997(0.001)</t>
+  </si>
+  <si>
+    <t>1.875(0.488)</t>
+  </si>
+  <si>
+    <t>3.75(0.976)</t>
+  </si>
+  <si>
+    <t>0.078(0.02)</t>
+  </si>
+  <si>
+    <t>0.156(0.041)</t>
+  </si>
+  <si>
+    <t>1.0(0.0)</t>
+  </si>
+  <si>
+    <t>0.002(0.0)</t>
+  </si>
+  <si>
+    <t>13.0(0.0)</t>
+  </si>
+  <si>
+    <t>1210.125(0.488)</t>
+  </si>
+  <si>
+    <t>0.875(0.029)</t>
+  </si>
+  <si>
+    <t>0.933(0.016)</t>
+  </si>
+  <si>
+    <t>0.998(0.0)</t>
+  </si>
+  <si>
+    <t>1.031(0.816)</t>
+  </si>
+  <si>
+    <t>2.062(1.632)</t>
+  </si>
+  <si>
+    <t>0.043(0.034)</t>
+  </si>
+  <si>
+    <t>0.086(0.068)</t>
+  </si>
+  <si>
+    <t>0.934(0.051)</t>
+  </si>
+  <si>
+    <t>12.141(0.663)</t>
+  </si>
+  <si>
+    <t>0.859(0.663)</t>
+  </si>
+  <si>
+    <t>1211.828(0.38)</t>
+  </si>
+  <si>
+    <t>0.987(0.03)</t>
+  </si>
+  <si>
+    <t>0.959(0.033)</t>
+  </si>
+  <si>
+    <t>0.999(0.001)</t>
+  </si>
+  <si>
+    <t>2.812(1.468)</t>
+  </si>
+  <si>
+    <t>4.719(2.554)</t>
+  </si>
+  <si>
+    <t>0.117(0.061)</t>
+  </si>
+  <si>
+    <t>0.197(0.106)</t>
+  </si>
+  <si>
+    <t>0.843(0.089)</t>
+  </si>
+  <si>
+    <t>0.0(0.001)</t>
+  </si>
+  <si>
+    <t>10.953(1.161)</t>
+  </si>
+  <si>
+    <t>0.484(0.666)</t>
+  </si>
+  <si>
+    <t>2.047(1.161)</t>
+  </si>
+  <si>
+    <t>1211.516(0.666)</t>
+  </si>
+  <si>
+    <t>0.96(0.054)</t>
+  </si>
+  <si>
+    <t>0.895(0.059)</t>
+  </si>
+  <si>
+    <t>0.974(2.384)</t>
+  </si>
+  <si>
+    <t>3.094(1.561)</t>
+  </si>
+  <si>
+    <t>5.219(2.728)</t>
+  </si>
+  <si>
+    <t>0.129(0.065)</t>
+  </si>
+  <si>
+    <t>0.217(0.114)</t>
+  </si>
+  <si>
+    <t>0.827(0.098)</t>
+  </si>
+  <si>
+    <t>10.75(1.272)</t>
+  </si>
+  <si>
+    <t>0.562(0.687)</t>
+  </si>
+  <si>
+    <t>2.25(1.272)</t>
+  </si>
+  <si>
+    <t>1211.438(0.687)</t>
+  </si>
+  <si>
+    <t>0.953(0.056)</t>
+  </si>
+  <si>
+    <t>0.882(0.065)</t>
+  </si>
+  <si>
+    <t>0.884(2.296)</t>
+  </si>
+  <si>
+    <t>5.688(1.424)</t>
+  </si>
+  <si>
+    <t>9.781(2.394)</t>
+  </si>
+  <si>
+    <t>0.237(0.059)</t>
+  </si>
+  <si>
+    <t>0.408(0.1)</t>
+  </si>
+  <si>
+    <t>0.728(0.103)</t>
+  </si>
+  <si>
+    <t>9.469(1.333)</t>
+  </si>
+  <si>
+    <t>1.953(0.415)</t>
+  </si>
+  <si>
+    <t>3.531(1.333)</t>
+  </si>
+  <si>
+    <t>1210.047(0.415)</t>
+  </si>
+  <si>
+    <t>0.828(0.04)</t>
+  </si>
+  <si>
+    <t>0.772(0.07)</t>
+  </si>
+  <si>
+    <t>0.996(0.001)</t>
+  </si>
+  <si>
+    <t>0.163(0.02)</t>
+  </si>
+  <si>
+    <t>5.844(1.525)</t>
+  </si>
+  <si>
+    <t>10.062(2.666)</t>
+  </si>
+  <si>
+    <t>0.243(0.064)</t>
+  </si>
+  <si>
+    <t>0.419(0.111)</t>
+  </si>
+  <si>
+    <t>0.725(0.107)</t>
+  </si>
+  <si>
+    <t>9.422(1.389)</t>
+  </si>
+  <si>
+    <t>2.016(0.378)</t>
+  </si>
+  <si>
+    <t>3.578(1.389)</t>
+  </si>
+  <si>
+    <t>1209.984(0.378)</t>
+  </si>
+  <si>
+    <t>0.822(0.037)</t>
+  </si>
+  <si>
+    <t>0.767(0.072)</t>
+  </si>
+  <si>
+    <t>0.995(0.001)</t>
+  </si>
+  <si>
+    <t>0.164(0.018)</t>
+  </si>
+  <si>
+    <t>1.984(0.882)</t>
+  </si>
+  <si>
+    <t>3.875(1.628)</t>
+  </si>
+  <si>
+    <t>0.083(0.037)</t>
+  </si>
+  <si>
+    <t>0.161(0.068)</t>
+  </si>
+  <si>
+    <t>0.989(0.033)</t>
+  </si>
+  <si>
+    <t>0.002(0.001)</t>
+  </si>
+  <si>
+    <t>12.859(0.432)</t>
+  </si>
+  <si>
+    <t>1.828(0.703)</t>
+  </si>
+  <si>
+    <t>0.141(0.432)</t>
+  </si>
+  <si>
+    <t>1210.172(0.703)</t>
+  </si>
+  <si>
+    <t>0.877(0.044)</t>
+  </si>
+  <si>
+    <t>0.929(0.032)</t>
+  </si>
+  <si>
+    <t>9.035(1.19)</t>
+  </si>
+  <si>
+    <t>2.25(0.617)</t>
+  </si>
+  <si>
+    <t>4.5(1.234)</t>
+  </si>
+  <si>
+    <t>0.094(0.026)</t>
+  </si>
+  <si>
+    <t>0.188(0.051)</t>
+  </si>
+  <si>
+    <t>0.996(0.016)</t>
+  </si>
+  <si>
+    <t>12.953(0.213)</t>
+  </si>
+  <si>
+    <t>2.203(0.568)</t>
+  </si>
+  <si>
+    <t>1209.797(0.568)</t>
+  </si>
+  <si>
+    <t>0.856(0.032)</t>
+  </si>
+  <si>
+    <t>0.92(0.021)</t>
+  </si>
+  <si>
+    <t>9.131(1.149)</t>
+  </si>
+  <si>
+    <t>4.672(1.564)</t>
+  </si>
+  <si>
+    <t>8.062(2.666)</t>
+  </si>
+  <si>
+    <t>0.195(0.065)</t>
+  </si>
+  <si>
+    <t>0.336(0.111)</t>
+  </si>
+  <si>
+    <t>0.816(0.107)</t>
+  </si>
+  <si>
+    <t>10.609(1.387)</t>
+  </si>
+  <si>
+    <t>1.891(0.693)</t>
+  </si>
+  <si>
+    <t>2.391(1.387)</t>
+  </si>
+  <si>
+    <t>1210.109(0.693)</t>
+  </si>
+  <si>
+    <t>0.85(0.051)</t>
+  </si>
+  <si>
+    <t>0.829(0.065)</t>
+  </si>
+  <si>
+    <t>9.146(1.17)</t>
+  </si>
+  <si>
+    <t>2.422(0.793)</t>
+  </si>
+  <si>
+    <t>4.844(1.586)</t>
+  </si>
+  <si>
+    <t>0.101(0.033)</t>
+  </si>
+  <si>
+    <t>0.202(0.066)</t>
+  </si>
+  <si>
+    <t>0.965(0.047)</t>
+  </si>
+  <si>
+    <t>12.547(0.615)</t>
+  </si>
+  <si>
+    <t>1.969(0.59)</t>
+  </si>
+  <si>
+    <t>0.453(0.615)</t>
+  </si>
+  <si>
+    <t>1210.031(0.59)</t>
+  </si>
+  <si>
+    <t>0.866(0.036)</t>
+  </si>
+  <si>
+    <t>0.912(0.03)</t>
+  </si>
+  <si>
+    <t>9.202(1.112)</t>
   </si>
 </sst>
 </file>
@@ -3552,8 +3993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView tabSelected="1" topLeftCell="K42" workbookViewId="0">
+      <selection activeCell="S62" sqref="S62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7190,6 +7631,7 @@
       <c r="AD38" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="AE38" s="4"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
@@ -7282,6 +7724,7 @@
       <c r="AD39" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="AE39" s="4"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
@@ -7374,6 +7817,7 @@
       <c r="AD40" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="AE40" s="4"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
@@ -7466,6 +7910,7 @@
       <c r="AD41" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="AE41" s="4"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
@@ -7558,6 +8003,7 @@
       <c r="AD42" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="AE42" s="4"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
@@ -7650,6 +8096,7 @@
       <c r="AD43" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="AE43" s="4"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
@@ -7742,6 +8189,7 @@
       <c r="AD44" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="AE44" s="4"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
@@ -7834,6 +8282,7 @@
       <c r="AD45" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="AE45" s="4"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
@@ -7926,6 +8375,7 @@
       <c r="AD46" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="AE46" s="4"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
@@ -8018,6 +8468,7 @@
       <c r="AD47" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="AE47" s="4"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
@@ -8110,6 +8561,7 @@
       <c r="AD48" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="AE48" s="4"/>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
@@ -8202,34 +8654,87 @@
       <c r="AD49" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="AE49" s="4"/>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
-      <c r="U50" s="4"/>
-      <c r="V50" s="4"/>
-      <c r="W50" s="4"/>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="4"/>
-      <c r="Z50" s="4"/>
+      <c r="A50" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="4">
+        <v>200</v>
+      </c>
+      <c r="E50" s="4">
+        <v>50</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="R50" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T50" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="U50" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="V50" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="W50" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="X50" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y50" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z50" s="4">
+        <v>20</v>
+      </c>
       <c r="AA50" s="4" t="s">
         <v>50</v>
       </c>
@@ -8247,32 +8752,84 @@
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
-      <c r="Y51" s="4"/>
-      <c r="Z51" s="4"/>
+      <c r="A51" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="4">
+        <v>200</v>
+      </c>
+      <c r="E51" s="4">
+        <v>50</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="R51" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="S51" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="T51" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="U51" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="V51" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="W51" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="X51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y51" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z51" s="4">
+        <v>20</v>
+      </c>
       <c r="AA51" s="4" t="s">
         <v>50</v>
       </c>
@@ -8290,32 +8847,84 @@
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
+      <c r="A52" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="4">
+        <v>200</v>
+      </c>
+      <c r="E52" s="4">
+        <v>50</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="S52" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="T52" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="U52" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="V52" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="W52" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="X52" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y52" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z52" s="4">
+        <v>20</v>
+      </c>
       <c r="AA52" s="4" t="s">
         <v>50</v>
       </c>
@@ -8333,32 +8942,84 @@
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="4"/>
-      <c r="V53" s="4"/>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
+      <c r="A53" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="4">
+        <v>200</v>
+      </c>
+      <c r="E53" s="4">
+        <v>50</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="R53" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="S53" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="T53" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="U53" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="V53" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="W53" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="X53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z53" s="4">
+        <v>20</v>
+      </c>
       <c r="AA53" s="4" t="s">
         <v>50</v>
       </c>
@@ -8376,32 +9037,84 @@
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="4"/>
-      <c r="U54" s="4"/>
-      <c r="V54" s="4"/>
-      <c r="W54" s="4"/>
-      <c r="X54" s="4"/>
-      <c r="Y54" s="4"/>
-      <c r="Z54" s="4"/>
+      <c r="A54" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="4">
+        <v>200</v>
+      </c>
+      <c r="E54" s="4">
+        <v>50</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H54" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="S54" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T54" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="U54" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="V54" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="W54" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="X54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y54" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z54" s="4">
+        <v>20</v>
+      </c>
       <c r="AA54" s="4" t="s">
         <v>50</v>
       </c>
@@ -8419,32 +9132,84 @@
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-      <c r="T55" s="4"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="4"/>
-      <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="4"/>
+      <c r="A55" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="4">
+        <v>200</v>
+      </c>
+      <c r="E55" s="4">
+        <v>50</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H55" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="S55" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="T55" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="U55" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="V55" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="W55" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="X55" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y55" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z55" s="4">
+        <v>20</v>
+      </c>
       <c r="AA55" s="4" t="s">
         <v>50</v>
       </c>
@@ -8462,32 +9227,84 @@
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="4"/>
+      <c r="A56" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="4">
+        <v>200</v>
+      </c>
+      <c r="E56" s="4">
+        <v>50</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H56" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="R56" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="S56" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T56" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="U56" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="V56" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="W56" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="X56" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y56" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z56" s="4">
+        <v>20</v>
+      </c>
       <c r="AA56" s="4" t="s">
         <v>50</v>
       </c>
@@ -8505,32 +9322,84 @@
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="4"/>
+      <c r="A57" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="4">
+        <v>200</v>
+      </c>
+      <c r="E57" s="4">
+        <v>50</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H57" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="R57" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="S57" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="T57" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="U57" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="V57" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="W57" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="X57" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y57" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z57" s="4">
+        <v>20</v>
+      </c>
       <c r="AA57" s="4" t="s">
         <v>50</v>
       </c>
@@ -8548,32 +9417,84 @@
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="4"/>
+      <c r="A58" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="4">
+        <v>200</v>
+      </c>
+      <c r="E58" s="4">
+        <v>50</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H58" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="R58" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="S58" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="T58" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="U58" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="V58" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="W58" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="X58" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z58" s="4">
+        <v>20</v>
+      </c>
       <c r="AA58" s="4" t="s">
         <v>50</v>
       </c>
@@ -8591,32 +9512,84 @@
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="4"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="4"/>
+      <c r="A59" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="4">
+        <v>200</v>
+      </c>
+      <c r="E59" s="4">
+        <v>50</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H59" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="R59" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="S59" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="T59" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="U59" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="V59" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="W59" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="X59" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z59" s="4">
+        <v>20</v>
+      </c>
       <c r="AA59" s="4" t="s">
         <v>50</v>
       </c>
@@ -8634,32 +9607,84 @@
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="4"/>
+      <c r="A60" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="4">
+        <v>200</v>
+      </c>
+      <c r="E60" s="4">
+        <v>50</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H60" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="R60" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="S60" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="T60" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="U60" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="V60" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="W60" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="X60" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z60" s="4">
+        <v>20</v>
+      </c>
       <c r="AA60" s="4" t="s">
         <v>50</v>
       </c>
@@ -8677,32 +9702,84 @@
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="4"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
-      <c r="W61" s="4"/>
-      <c r="X61" s="4"/>
-      <c r="Y61" s="4"/>
-      <c r="Z61" s="4"/>
+      <c r="A61" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="4">
+        <v>200</v>
+      </c>
+      <c r="E61" s="4">
+        <v>50</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H61" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="R61" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="S61" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="T61" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="U61" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="V61" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="W61" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="X61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y61" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z61" s="4">
+        <v>20</v>
+      </c>
       <c r="AA61" s="4" t="s">
         <v>50</v>
       </c>
@@ -8758,6 +9835,7 @@
       <c r="AD62" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="AE62" s="4"/>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
@@ -8798,6 +9876,7 @@
       <c r="AD63" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="AE63" s="4"/>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
@@ -8838,6 +9917,7 @@
       <c r="AD64" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="AE64" s="4"/>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
@@ -8878,6 +9958,7 @@
       <c r="AD65" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="AE65" s="4"/>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
@@ -8918,6 +9999,7 @@
       <c r="AD66" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="AE66" s="4"/>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
@@ -8958,6 +10040,7 @@
       <c r="AD67" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="AE67" s="4"/>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
@@ -8998,6 +10081,7 @@
       <c r="AD68" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="AE68" s="4"/>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
@@ -9038,6 +10122,7 @@
       <c r="AD69" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="AE69" s="4"/>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
@@ -9078,6 +10163,7 @@
       <c r="AD70" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="AE70" s="4"/>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
@@ -9118,6 +10204,7 @@
       <c r="AD71" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="AE71" s="4"/>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
@@ -9158,6 +10245,7 @@
       <c r="AD72" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="AE72" s="4"/>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
@@ -9198,8 +10286,35 @@
       <c r="AD73" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="AE73" s="4"/>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4"/>
       <c r="AA74" s="4" t="s">
         <v>50</v>
       </c>
@@ -9217,6 +10332,32 @@
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4"/>
       <c r="AA75" s="4" t="s">
         <v>50</v>
       </c>
@@ -9234,6 +10375,32 @@
       </c>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
       <c r="AA76" s="4" t="s">
         <v>50</v>
       </c>
@@ -9251,6 +10418,32 @@
       </c>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
       <c r="AA77" s="4" t="s">
         <v>50</v>
       </c>
@@ -9268,6 +10461,32 @@
       </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="4"/>
       <c r="AA78" s="4" t="s">
         <v>50</v>
       </c>
@@ -9285,6 +10504,32 @@
       </c>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4"/>
       <c r="AA79" s="4" t="s">
         <v>50</v>
       </c>
@@ -9302,6 +10547,32 @@
       </c>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="4"/>
       <c r="AA80" s="4" t="s">
         <v>50</v>
       </c>
@@ -9318,7 +10589,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="4"/>
       <c r="AA81" s="4" t="s">
         <v>50</v>
       </c>
@@ -9335,7 +10632,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="4"/>
       <c r="AA82" s="4" t="s">
         <v>50</v>
       </c>
@@ -9352,7 +10675,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
+      <c r="X83" s="4"/>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="4"/>
       <c r="AA83" s="4" t="s">
         <v>50</v>
       </c>
@@ -9369,7 +10718,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4"/>
+      <c r="S84" s="4"/>
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+      <c r="V84" s="4"/>
+      <c r="W84" s="4"/>
+      <c r="X84" s="4"/>
+      <c r="Y84" s="4"/>
+      <c r="Z84" s="4"/>
       <c r="AA84" s="4" t="s">
         <v>50</v>
       </c>
@@ -9386,7 +10761,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4"/>
+      <c r="S85" s="4"/>
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="4"/>
+      <c r="X85" s="4"/>
+      <c r="Y85" s="4"/>
+      <c r="Z85" s="4"/>
       <c r="AA85" s="4" t="s">
         <v>50</v>
       </c>
@@ -9403,7 +10804,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
+      <c r="S86" s="4"/>
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+      <c r="V86" s="4"/>
+      <c r="W86" s="4"/>
+      <c r="X86" s="4"/>
+      <c r="Y86" s="4"/>
+      <c r="Z86" s="4"/>
       <c r="AA86" s="4" t="s">
         <v>50</v>
       </c>
@@ -9416,8 +10843,35 @@
       <c r="AD86" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="87" spans="27:31" x14ac:dyDescent="0.3">
+      <c r="AE86" s="4"/>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+      <c r="S87" s="4"/>
+      <c r="T87" s="4"/>
+      <c r="U87" s="4"/>
+      <c r="V87" s="4"/>
+      <c r="W87" s="4"/>
+      <c r="X87" s="4"/>
+      <c r="Y87" s="4"/>
+      <c r="Z87" s="4"/>
       <c r="AA87" s="4" t="s">
         <v>50</v>
       </c>
@@ -9430,8 +10884,35 @@
       <c r="AD87" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="88" spans="27:31" x14ac:dyDescent="0.3">
+      <c r="AE87" s="4"/>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4"/>
+      <c r="S88" s="4"/>
+      <c r="T88" s="4"/>
+      <c r="U88" s="4"/>
+      <c r="V88" s="4"/>
+      <c r="W88" s="4"/>
+      <c r="X88" s="4"/>
+      <c r="Y88" s="4"/>
+      <c r="Z88" s="4"/>
       <c r="AA88" s="4" t="s">
         <v>50</v>
       </c>
@@ -9444,8 +10925,35 @@
       <c r="AD88" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="89" spans="27:31" x14ac:dyDescent="0.3">
+      <c r="AE88" s="4"/>
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+      <c r="S89" s="4"/>
+      <c r="T89" s="4"/>
+      <c r="U89" s="4"/>
+      <c r="V89" s="4"/>
+      <c r="W89" s="4"/>
+      <c r="X89" s="4"/>
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="4"/>
       <c r="AA89" s="4" t="s">
         <v>50</v>
       </c>
@@ -9458,8 +10966,35 @@
       <c r="AD89" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="90" spans="27:31" x14ac:dyDescent="0.3">
+      <c r="AE89" s="4"/>
+    </row>
+    <row r="90" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+      <c r="S90" s="4"/>
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
+      <c r="V90" s="4"/>
+      <c r="W90" s="4"/>
+      <c r="X90" s="4"/>
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="4"/>
       <c r="AA90" s="4" t="s">
         <v>50</v>
       </c>
@@ -9472,8 +11007,35 @@
       <c r="AD90" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="91" spans="27:31" x14ac:dyDescent="0.3">
+      <c r="AE90" s="4"/>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+      <c r="S91" s="4"/>
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+      <c r="V91" s="4"/>
+      <c r="W91" s="4"/>
+      <c r="X91" s="4"/>
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="4"/>
       <c r="AA91" s="4" t="s">
         <v>50</v>
       </c>
@@ -9486,8 +11048,35 @@
       <c r="AD91" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="92" spans="27:31" x14ac:dyDescent="0.3">
+      <c r="AE91" s="4"/>
+    </row>
+    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="4"/>
+      <c r="X92" s="4"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4"/>
       <c r="AA92" s="4" t="s">
         <v>50</v>
       </c>
@@ -9500,8 +11089,35 @@
       <c r="AD92" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="93" spans="27:31" x14ac:dyDescent="0.3">
+      <c r="AE92" s="4"/>
+    </row>
+    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="4"/>
+      <c r="X93" s="4"/>
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="4"/>
       <c r="AA93" s="4" t="s">
         <v>50</v>
       </c>
@@ -9514,8 +11130,35 @@
       <c r="AD93" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="94" spans="27:31" x14ac:dyDescent="0.3">
+      <c r="AE93" s="4"/>
+    </row>
+    <row r="94" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+      <c r="V94" s="4"/>
+      <c r="W94" s="4"/>
+      <c r="X94" s="4"/>
+      <c r="Y94" s="4"/>
+      <c r="Z94" s="4"/>
       <c r="AA94" s="4" t="s">
         <v>50</v>
       </c>
@@ -9528,8 +11171,35 @@
       <c r="AD94" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="95" spans="27:31" x14ac:dyDescent="0.3">
+      <c r="AE94" s="4"/>
+    </row>
+    <row r="95" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="4"/>
+      <c r="X95" s="4"/>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="4"/>
       <c r="AA95" s="4" t="s">
         <v>50</v>
       </c>
@@ -9542,8 +11212,35 @@
       <c r="AD95" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="96" spans="27:31" x14ac:dyDescent="0.3">
+      <c r="AE95" s="4"/>
+    </row>
+    <row r="96" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="4"/>
+      <c r="S96" s="4"/>
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+      <c r="V96" s="4"/>
+      <c r="W96" s="4"/>
+      <c r="X96" s="4"/>
+      <c r="Y96" s="4"/>
+      <c r="Z96" s="4"/>
       <c r="AA96" s="4" t="s">
         <v>50</v>
       </c>
@@ -9556,8 +11253,35 @@
       <c r="AD96" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="97" spans="27:31" x14ac:dyDescent="0.3">
+      <c r="AE96" s="4"/>
+    </row>
+    <row r="97" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="4"/>
+      <c r="X97" s="4"/>
+      <c r="Y97" s="4"/>
+      <c r="Z97" s="4"/>
       <c r="AA97" s="4" t="s">
         <v>50</v>
       </c>
@@ -9570,8 +11294,35 @@
       <c r="AD97" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="98" spans="27:31" x14ac:dyDescent="0.3">
+      <c r="AE97" s="4"/>
+    </row>
+    <row r="98" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+      <c r="V98" s="4"/>
+      <c r="W98" s="4"/>
+      <c r="X98" s="4"/>
+      <c r="Y98" s="4"/>
+      <c r="Z98" s="4"/>
       <c r="AA98" s="4" t="s">
         <v>50</v>
       </c>
@@ -9588,7 +11339,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="99" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+      <c r="S99" s="4"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="4"/>
+      <c r="W99" s="4"/>
+      <c r="X99" s="4"/>
+      <c r="Y99" s="4"/>
+      <c r="Z99" s="4"/>
       <c r="AA99" s="4" t="s">
         <v>50</v>
       </c>
@@ -9605,7 +11382,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="100" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4"/>
+      <c r="S100" s="4"/>
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+      <c r="V100" s="4"/>
+      <c r="W100" s="4"/>
+      <c r="X100" s="4"/>
+      <c r="Y100" s="4"/>
+      <c r="Z100" s="4"/>
       <c r="AA100" s="4" t="s">
         <v>50</v>
       </c>
@@ -9622,7 +11425,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="101" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="4"/>
+      <c r="S101" s="4"/>
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+      <c r="V101" s="4"/>
+      <c r="W101" s="4"/>
+      <c r="X101" s="4"/>
+      <c r="Y101" s="4"/>
+      <c r="Z101" s="4"/>
       <c r="AA101" s="4" t="s">
         <v>50</v>
       </c>
@@ -9639,7 +11468,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="102" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="4"/>
+      <c r="S102" s="4"/>
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="4"/>
+      <c r="W102" s="4"/>
+      <c r="X102" s="4"/>
+      <c r="Y102" s="4"/>
+      <c r="Z102" s="4"/>
       <c r="AA102" s="4" t="s">
         <v>50</v>
       </c>
@@ -9656,7 +11511,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+      <c r="R103" s="4"/>
+      <c r="S103" s="4"/>
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+      <c r="V103" s="4"/>
+      <c r="W103" s="4"/>
+      <c r="X103" s="4"/>
+      <c r="Y103" s="4"/>
+      <c r="Z103" s="4"/>
       <c r="AA103" s="4" t="s">
         <v>50</v>
       </c>
@@ -9673,7 +11554,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="4"/>
+      <c r="S104" s="4"/>
+      <c r="T104" s="4"/>
+      <c r="U104" s="4"/>
+      <c r="V104" s="4"/>
+      <c r="W104" s="4"/>
+      <c r="X104" s="4"/>
+      <c r="Y104" s="4"/>
+      <c r="Z104" s="4"/>
       <c r="AA104" s="4" t="s">
         <v>50</v>
       </c>
@@ -9690,7 +11597,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="4"/>
+      <c r="S105" s="4"/>
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+      <c r="V105" s="4"/>
+      <c r="W105" s="4"/>
+      <c r="X105" s="4"/>
+      <c r="Y105" s="4"/>
+      <c r="Z105" s="4"/>
       <c r="AA105" s="4" t="s">
         <v>50</v>
       </c>
@@ -9707,7 +11640,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4"/>
+      <c r="R106" s="4"/>
+      <c r="S106" s="4"/>
+      <c r="T106" s="4"/>
+      <c r="U106" s="4"/>
+      <c r="V106" s="4"/>
+      <c r="W106" s="4"/>
+      <c r="X106" s="4"/>
+      <c r="Y106" s="4"/>
+      <c r="Z106" s="4"/>
       <c r="AA106" s="4" t="s">
         <v>50</v>
       </c>
@@ -9724,7 +11683,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="107" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="4"/>
+      <c r="P107" s="4"/>
+      <c r="Q107" s="4"/>
+      <c r="R107" s="4"/>
+      <c r="S107" s="4"/>
+      <c r="T107" s="4"/>
+      <c r="U107" s="4"/>
+      <c r="V107" s="4"/>
+      <c r="W107" s="4"/>
+      <c r="X107" s="4"/>
+      <c r="Y107" s="4"/>
+      <c r="Z107" s="4"/>
       <c r="AA107" s="4" t="s">
         <v>50</v>
       </c>
@@ -9741,7 +11726,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="108" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4"/>
+      <c r="R108" s="4"/>
+      <c r="S108" s="4"/>
+      <c r="T108" s="4"/>
+      <c r="U108" s="4"/>
+      <c r="V108" s="4"/>
+      <c r="W108" s="4"/>
+      <c r="X108" s="4"/>
+      <c r="Y108" s="4"/>
+      <c r="Z108" s="4"/>
       <c r="AA108" s="4" t="s">
         <v>50</v>
       </c>
@@ -9758,7 +11769,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="109" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
+      <c r="Q109" s="4"/>
+      <c r="R109" s="4"/>
+      <c r="S109" s="4"/>
+      <c r="T109" s="4"/>
+      <c r="U109" s="4"/>
+      <c r="V109" s="4"/>
+      <c r="W109" s="4"/>
+      <c r="X109" s="4"/>
+      <c r="Y109" s="4"/>
+      <c r="Z109" s="4"/>
       <c r="AA109" s="4" t="s">
         <v>50</v>
       </c>
@@ -9775,7 +11812,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="110" spans="27:31" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="4"/>
+      <c r="S110" s="4"/>
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+      <c r="V110" s="4"/>
+      <c r="W110" s="4"/>
+      <c r="X110" s="4"/>
+      <c r="Y110" s="4"/>
+      <c r="Z110" s="4"/>
       <c r="AA110" s="4" t="s">
         <v>50</v>
       </c>
@@ -9788,8 +11851,35 @@
       <c r="AD110" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="111" spans="27:31" x14ac:dyDescent="0.3">
+      <c r="AE110" s="4"/>
+    </row>
+    <row r="111" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
+      <c r="S111" s="4"/>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+      <c r="V111" s="4"/>
+      <c r="W111" s="4"/>
+      <c r="X111" s="4"/>
+      <c r="Y111" s="4"/>
+      <c r="Z111" s="4"/>
       <c r="AA111" s="4" t="s">
         <v>50</v>
       </c>
@@ -9802,8 +11892,35 @@
       <c r="AD111" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="112" spans="27:31" x14ac:dyDescent="0.3">
+      <c r="AE111" s="4"/>
+    </row>
+    <row r="112" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+      <c r="R112" s="4"/>
+      <c r="S112" s="4"/>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="4"/>
+      <c r="W112" s="4"/>
+      <c r="X112" s="4"/>
+      <c r="Y112" s="4"/>
+      <c r="Z112" s="4"/>
       <c r="AA112" s="4" t="s">
         <v>50</v>
       </c>
@@ -9816,8 +11933,35 @@
       <c r="AD112" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="113" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AE112" s="4"/>
+    </row>
+    <row r="113" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+      <c r="R113" s="4"/>
+      <c r="S113" s="4"/>
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+      <c r="V113" s="4"/>
+      <c r="W113" s="4"/>
+      <c r="X113" s="4"/>
+      <c r="Y113" s="4"/>
+      <c r="Z113" s="4"/>
       <c r="AA113" s="4" t="s">
         <v>50</v>
       </c>
@@ -9830,8 +11974,35 @@
       <c r="AD113" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="114" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AE113" s="4"/>
+    </row>
+    <row r="114" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4"/>
+      <c r="R114" s="4"/>
+      <c r="S114" s="4"/>
+      <c r="T114" s="4"/>
+      <c r="U114" s="4"/>
+      <c r="V114" s="4"/>
+      <c r="W114" s="4"/>
+      <c r="X114" s="4"/>
+      <c r="Y114" s="4"/>
+      <c r="Z114" s="4"/>
       <c r="AA114" s="4" t="s">
         <v>50</v>
       </c>
@@ -9844,8 +12015,35 @@
       <c r="AD114" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="115" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AE114" s="4"/>
+    </row>
+    <row r="115" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="4"/>
+      <c r="Q115" s="4"/>
+      <c r="R115" s="4"/>
+      <c r="S115" s="4"/>
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+      <c r="V115" s="4"/>
+      <c r="W115" s="4"/>
+      <c r="X115" s="4"/>
+      <c r="Y115" s="4"/>
+      <c r="Z115" s="4"/>
       <c r="AA115" s="4" t="s">
         <v>50</v>
       </c>
@@ -9858,8 +12056,35 @@
       <c r="AD115" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="116" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AE115" s="4"/>
+    </row>
+    <row r="116" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+      <c r="O116" s="4"/>
+      <c r="P116" s="4"/>
+      <c r="Q116" s="4"/>
+      <c r="R116" s="4"/>
+      <c r="S116" s="4"/>
+      <c r="T116" s="4"/>
+      <c r="U116" s="4"/>
+      <c r="V116" s="4"/>
+      <c r="W116" s="4"/>
+      <c r="X116" s="4"/>
+      <c r="Y116" s="4"/>
+      <c r="Z116" s="4"/>
       <c r="AA116" s="4" t="s">
         <v>50</v>
       </c>
@@ -9872,8 +12097,35 @@
       <c r="AD116" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="117" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AE116" s="4"/>
+    </row>
+    <row r="117" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
+      <c r="O117" s="4"/>
+      <c r="P117" s="4"/>
+      <c r="Q117" s="4"/>
+      <c r="R117" s="4"/>
+      <c r="S117" s="4"/>
+      <c r="T117" s="4"/>
+      <c r="U117" s="4"/>
+      <c r="V117" s="4"/>
+      <c r="W117" s="4"/>
+      <c r="X117" s="4"/>
+      <c r="Y117" s="4"/>
+      <c r="Z117" s="4"/>
       <c r="AA117" s="4" t="s">
         <v>50</v>
       </c>
@@ -9886,8 +12138,35 @@
       <c r="AD117" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="118" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AE117" s="4"/>
+    </row>
+    <row r="118" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4"/>
+      <c r="R118" s="4"/>
+      <c r="S118" s="4"/>
+      <c r="T118" s="4"/>
+      <c r="U118" s="4"/>
+      <c r="V118" s="4"/>
+      <c r="W118" s="4"/>
+      <c r="X118" s="4"/>
+      <c r="Y118" s="4"/>
+      <c r="Z118" s="4"/>
       <c r="AA118" s="4" t="s">
         <v>50</v>
       </c>
@@ -9900,8 +12179,35 @@
       <c r="AD118" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="119" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AE118" s="4"/>
+    </row>
+    <row r="119" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4"/>
+      <c r="O119" s="4"/>
+      <c r="P119" s="4"/>
+      <c r="Q119" s="4"/>
+      <c r="R119" s="4"/>
+      <c r="S119" s="4"/>
+      <c r="T119" s="4"/>
+      <c r="U119" s="4"/>
+      <c r="V119" s="4"/>
+      <c r="W119" s="4"/>
+      <c r="X119" s="4"/>
+      <c r="Y119" s="4"/>
+      <c r="Z119" s="4"/>
       <c r="AA119" s="4" t="s">
         <v>50</v>
       </c>
@@ -9914,8 +12220,35 @@
       <c r="AD119" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="120" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AE119" s="4"/>
+    </row>
+    <row r="120" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="4"/>
+      <c r="P120" s="4"/>
+      <c r="Q120" s="4"/>
+      <c r="R120" s="4"/>
+      <c r="S120" s="4"/>
+      <c r="T120" s="4"/>
+      <c r="U120" s="4"/>
+      <c r="V120" s="4"/>
+      <c r="W120" s="4"/>
+      <c r="X120" s="4"/>
+      <c r="Y120" s="4"/>
+      <c r="Z120" s="4"/>
       <c r="AA120" s="4" t="s">
         <v>50</v>
       </c>
@@ -9928,6 +12261,7 @@
       <c r="AD120" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="AE120" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AE120" xr:uid="{00000000-0001-0000-0000-000000000000}">

--- a/aug_pc_result/data_augment.xlsx
+++ b/aug_pc_result/data_augment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CausalLearning\code\aug_pc_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73129026-33DE-42F8-9991-3389DE02199F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF8B8FE-44D0-4B6B-AD3C-CFD866CC7BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4125" uniqueCount="2140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4545" uniqueCount="2408">
   <si>
     <t>noise</t>
   </si>
@@ -6451,6 +6451,810 @@
   </si>
   <si>
     <t>1733.211(96.477)</t>
+  </si>
+  <si>
+    <t>74.344(4.961)</t>
+  </si>
+  <si>
+    <t>84.125(6.323)</t>
+  </si>
+  <si>
+    <t>0.799(0.053)</t>
+  </si>
+  <si>
+    <t>0.905(0.068)</t>
+  </si>
+  <si>
+    <t>0.435(0.042)</t>
+  </si>
+  <si>
+    <t>36.094(3.526)</t>
+  </si>
+  <si>
+    <t>14.203(3.367)</t>
+  </si>
+  <si>
+    <t>46.906(3.526)</t>
+  </si>
+  <si>
+    <t>1127.797(3.367)</t>
+  </si>
+  <si>
+    <t>0.719(0.056)</t>
+  </si>
+  <si>
+    <t>0.541(0.043)</t>
+  </si>
+  <si>
+    <t>0.95(0.004)</t>
+  </si>
+  <si>
+    <t>1817.64(25.884)</t>
+  </si>
+  <si>
+    <t>76.203(5.498)</t>
+  </si>
+  <si>
+    <t>86.344(7.172)</t>
+  </si>
+  <si>
+    <t>0.819(0.059)</t>
+  </si>
+  <si>
+    <t>0.928(0.077)</t>
+  </si>
+  <si>
+    <t>0.411(0.047)</t>
+  </si>
+  <si>
+    <t>34.141(3.911)</t>
+  </si>
+  <si>
+    <t>14.0(3.256)</t>
+  </si>
+  <si>
+    <t>48.859(3.911)</t>
+  </si>
+  <si>
+    <t>1128.0(3.256)</t>
+  </si>
+  <si>
+    <t>0.711(0.055)</t>
+  </si>
+  <si>
+    <t>0.52(0.046)</t>
+  </si>
+  <si>
+    <t>0.949(0.004)</t>
+  </si>
+  <si>
+    <t>1805.066(22.972)</t>
+  </si>
+  <si>
+    <t>117.5(6.241)</t>
+  </si>
+  <si>
+    <t>131.5(7.791)</t>
+  </si>
+  <si>
+    <t>1.263(0.067)</t>
+  </si>
+  <si>
+    <t>1.414(0.084)</t>
+  </si>
+  <si>
+    <t>0.232(0.039)</t>
+  </si>
+  <si>
+    <t>0.041(0.004)</t>
+  </si>
+  <si>
+    <t>19.281(3.209)</t>
+  </si>
+  <si>
+    <t>47.078(4.835)</t>
+  </si>
+  <si>
+    <t>63.719(3.209)</t>
+  </si>
+  <si>
+    <t>1094.922(4.835)</t>
+  </si>
+  <si>
+    <t>0.291(0.048)</t>
+  </si>
+  <si>
+    <t>0.258(0.041)</t>
+  </si>
+  <si>
+    <t>0.91(0.005)</t>
+  </si>
+  <si>
+    <t>14623.884(5378.909)</t>
+  </si>
+  <si>
+    <t>108.078(5.446)</t>
+  </si>
+  <si>
+    <t>122.031(7.316)</t>
+  </si>
+  <si>
+    <t>1.162(0.059)</t>
+  </si>
+  <si>
+    <t>1.312(0.079)</t>
+  </si>
+  <si>
+    <t>0.241(0.044)</t>
+  </si>
+  <si>
+    <t>0.034(0.004)</t>
+  </si>
+  <si>
+    <t>20.016(3.632)</t>
+  </si>
+  <si>
+    <t>38.875(4.092)</t>
+  </si>
+  <si>
+    <t>62.984(3.632)</t>
+  </si>
+  <si>
+    <t>1103.125(4.092)</t>
+  </si>
+  <si>
+    <t>0.339(0.052)</t>
+  </si>
+  <si>
+    <t>0.282(0.047)</t>
+  </si>
+  <si>
+    <t>0.917(0.005)</t>
+  </si>
+  <si>
+    <t>3309.89(1289.864)</t>
+  </si>
+  <si>
+    <t>76.375(6.321)</t>
+  </si>
+  <si>
+    <t>87.484(7.92)</t>
+  </si>
+  <si>
+    <t>0.821(0.068)</t>
+  </si>
+  <si>
+    <t>0.941(0.085)</t>
+  </si>
+  <si>
+    <t>0.465(0.043)</t>
+  </si>
+  <si>
+    <t>0.016(0.003)</t>
+  </si>
+  <si>
+    <t>38.578(3.598)</t>
+  </si>
+  <si>
+    <t>18.5(3.63)</t>
+  </si>
+  <si>
+    <t>44.422(3.598)</t>
+  </si>
+  <si>
+    <t>1123.5(3.63)</t>
+  </si>
+  <si>
+    <t>0.677(0.055)</t>
+  </si>
+  <si>
+    <t>0.55(0.045)</t>
+  </si>
+  <si>
+    <t>0.949(0.005)</t>
+  </si>
+  <si>
+    <t>1889.876(67.336)</t>
+  </si>
+  <si>
+    <t>81.125(6.67)</t>
+  </si>
+  <si>
+    <t>92.109(7.988)</t>
+  </si>
+  <si>
+    <t>0.872(0.072)</t>
+  </si>
+  <si>
+    <t>0.99(0.086)</t>
+  </si>
+  <si>
+    <t>0.449(0.04)</t>
+  </si>
+  <si>
+    <t>0.019(0.004)</t>
+  </si>
+  <si>
+    <t>37.297(3.322)</t>
+  </si>
+  <si>
+    <t>21.344(4.048)</t>
+  </si>
+  <si>
+    <t>45.703(3.322)</t>
+  </si>
+  <si>
+    <t>1120.656(4.048)</t>
+  </si>
+  <si>
+    <t>0.637(0.058)</t>
+  </si>
+  <si>
+    <t>0.527(0.045)</t>
+  </si>
+  <si>
+    <t>0.945(0.005)</t>
+  </si>
+  <si>
+    <t>1976.415(123.227)</t>
+  </si>
+  <si>
+    <t>81.828(6.189)</t>
+  </si>
+  <si>
+    <t>92.516(8.382)</t>
+  </si>
+  <si>
+    <t>0.88(0.067)</t>
+  </si>
+  <si>
+    <t>0.995(0.09)</t>
+  </si>
+  <si>
+    <t>0.439(0.039)</t>
+  </si>
+  <si>
+    <t>0.02(0.004)</t>
+  </si>
+  <si>
+    <t>36.406(3.269)</t>
+  </si>
+  <si>
+    <t>22.953(4.115)</t>
+  </si>
+  <si>
+    <t>46.594(3.269)</t>
+  </si>
+  <si>
+    <t>1119.047(4.115)</t>
+  </si>
+  <si>
+    <t>0.615(0.056)</t>
+  </si>
+  <si>
+    <t>0.511(0.043)</t>
+  </si>
+  <si>
+    <t>0.943(0.005)</t>
+  </si>
+  <si>
+    <t>1866.994(34.513)</t>
+  </si>
+  <si>
+    <t>88.219(6.168)</t>
+  </si>
+  <si>
+    <t>101.172(8.265)</t>
+  </si>
+  <si>
+    <t>0.949(0.066)</t>
+  </si>
+  <si>
+    <t>1.088(0.089)</t>
+  </si>
+  <si>
+    <t>0.415(0.039)</t>
+  </si>
+  <si>
+    <t>0.023(0.004)</t>
+  </si>
+  <si>
+    <t>34.406(3.23)</t>
+  </si>
+  <si>
+    <t>26.719(4.084)</t>
+  </si>
+  <si>
+    <t>48.594(3.23)</t>
+  </si>
+  <si>
+    <t>1115.281(4.084)</t>
+  </si>
+  <si>
+    <t>0.564(0.049)</t>
+  </si>
+  <si>
+    <t>0.477(0.039)</t>
+  </si>
+  <si>
+    <t>0.939(0.005)</t>
+  </si>
+  <si>
+    <t>2061.799(101.821)</t>
+  </si>
+  <si>
+    <t>71.0(5.515)</t>
+  </si>
+  <si>
+    <t>80.141(7.144)</t>
+  </si>
+  <si>
+    <t>0.763(0.059)</t>
+  </si>
+  <si>
+    <t>0.862(0.077)</t>
+  </si>
+  <si>
+    <t>0.432(0.044)</t>
+  </si>
+  <si>
+    <t>0.009(0.002)</t>
+  </si>
+  <si>
+    <t>35.828(3.658)</t>
+  </si>
+  <si>
+    <t>9.906(2.724)</t>
+  </si>
+  <si>
+    <t>47.172(3.658)</t>
+  </si>
+  <si>
+    <t>1132.094(2.724)</t>
+  </si>
+  <si>
+    <t>0.784(0.051)</t>
+  </si>
+  <si>
+    <t>0.556(0.044)</t>
+  </si>
+  <si>
+    <t>0.953(0.004)</t>
+  </si>
+  <si>
+    <t>0.927(0.141)</t>
+  </si>
+  <si>
+    <t>85.453(4.925)</t>
+  </si>
+  <si>
+    <t>98.875(7.181)</t>
+  </si>
+  <si>
+    <t>0.919(0.053)</t>
+  </si>
+  <si>
+    <t>1.063(0.077)</t>
+  </si>
+  <si>
+    <t>0.203(0.039)</t>
+  </si>
+  <si>
+    <t>16.812(3.221)</t>
+  </si>
+  <si>
+    <t>13.781(3.283)</t>
+  </si>
+  <si>
+    <t>66.188(3.221)</t>
+  </si>
+  <si>
+    <t>1128.219(3.283)</t>
+  </si>
+  <si>
+    <t>0.551(0.085)</t>
+  </si>
+  <si>
+    <t>0.295(0.051)</t>
+  </si>
+  <si>
+    <t>0.935(0.004)</t>
+  </si>
+  <si>
+    <t>1.006(0.189)</t>
+  </si>
+  <si>
+    <t>69.5(6.738)</t>
+  </si>
+  <si>
+    <t>79.562(8.47)</t>
+  </si>
+  <si>
+    <t>0.747(0.072)</t>
+  </si>
+  <si>
+    <t>0.856(0.091)</t>
+  </si>
+  <si>
+    <t>0.48(0.047)</t>
+  </si>
+  <si>
+    <t>0.011(0.003)</t>
+  </si>
+  <si>
+    <t>39.828(3.894)</t>
+  </si>
+  <si>
+    <t>12.219(3.078)</t>
+  </si>
+  <si>
+    <t>43.172(3.894)</t>
+  </si>
+  <si>
+    <t>1129.781(3.078)</t>
+  </si>
+  <si>
+    <t>0.766(0.056)</t>
+  </si>
+  <si>
+    <t>0.589(0.048)</t>
+  </si>
+  <si>
+    <t>0.955(0.005)</t>
+  </si>
+  <si>
+    <t>0.856(0.167)</t>
+  </si>
+  <si>
+    <t>71.562(4.966)</t>
+  </si>
+  <si>
+    <t>80.703(6.909)</t>
+  </si>
+  <si>
+    <t>0.769(0.053)</t>
+  </si>
+  <si>
+    <t>0.868(0.074)</t>
+  </si>
+  <si>
+    <t>0.43(0.039)</t>
+  </si>
+  <si>
+    <t>0.01(0.003)</t>
+  </si>
+  <si>
+    <t>35.672(3.197)</t>
+  </si>
+  <si>
+    <t>11.297(3.079)</t>
+  </si>
+  <si>
+    <t>47.328(3.197)</t>
+  </si>
+  <si>
+    <t>1130.703(3.079)</t>
+  </si>
+  <si>
+    <t>0.761(0.052)</t>
+  </si>
+  <si>
+    <t>0.548(0.039)</t>
+  </si>
+  <si>
+    <t>0.952(0.004)</t>
+  </si>
+  <si>
+    <t>0.771(0.185)</t>
+  </si>
+  <si>
+    <t>77.406(4.471)</t>
+  </si>
+  <si>
+    <t>85.75(6.33)</t>
+  </si>
+  <si>
+    <t>0.832(0.048)</t>
+  </si>
+  <si>
+    <t>0.922(0.068)</t>
+  </si>
+  <si>
+    <t>0.284(0.044)</t>
+  </si>
+  <si>
+    <t>23.531(3.686)</t>
+  </si>
+  <si>
+    <t>3.219(2.119)</t>
+  </si>
+  <si>
+    <t>59.469(3.686)</t>
+  </si>
+  <si>
+    <t>1138.781(2.119)</t>
+  </si>
+  <si>
+    <t>0.428(0.055)</t>
+  </si>
+  <si>
+    <t>1841.837(93.099)</t>
+  </si>
+  <si>
+    <t>81.219(4.634)</t>
+  </si>
+  <si>
+    <t>91.047(6.093)</t>
+  </si>
+  <si>
+    <t>0.873(0.05)</t>
+  </si>
+  <si>
+    <t>0.979(0.066)</t>
+  </si>
+  <si>
+    <t>0.268(0.051)</t>
+  </si>
+  <si>
+    <t>0.007(0.002)</t>
+  </si>
+  <si>
+    <t>22.234(4.234)</t>
+  </si>
+  <si>
+    <t>8.469(2.576)</t>
+  </si>
+  <si>
+    <t>60.766(4.234)</t>
+  </si>
+  <si>
+    <t>1133.531(2.576)</t>
+  </si>
+  <si>
+    <t>0.723(0.081)</t>
+  </si>
+  <si>
+    <t>0.389(0.063)</t>
+  </si>
+  <si>
+    <t>1832.298(146.032)</t>
+  </si>
+  <si>
+    <t>81.688(2.054)</t>
+  </si>
+  <si>
+    <t>91.719(3.794)</t>
+  </si>
+  <si>
+    <t>0.878(0.022)</t>
+  </si>
+  <si>
+    <t>0.986(0.041)</t>
+  </si>
+  <si>
+    <t>0.098(0.035)</t>
+  </si>
+  <si>
+    <t>8.172(2.92)</t>
+  </si>
+  <si>
+    <t>1.875(1.327)</t>
+  </si>
+  <si>
+    <t>74.828(2.92)</t>
+  </si>
+  <si>
+    <t>1140.125(1.327)</t>
+  </si>
+  <si>
+    <t>0.821(0.093)</t>
+  </si>
+  <si>
+    <t>0.174(0.054)</t>
+  </si>
+  <si>
+    <t>0.937(0.002)</t>
+  </si>
+  <si>
+    <t>1048.196(875.458)</t>
+  </si>
+  <si>
+    <t>81.516(2.016)</t>
+  </si>
+  <si>
+    <t>91.906(3.499)</t>
+  </si>
+  <si>
+    <t>0.877(0.022)</t>
+  </si>
+  <si>
+    <t>0.988(0.038)</t>
+  </si>
+  <si>
+    <t>0.114(0.031)</t>
+  </si>
+  <si>
+    <t>9.469(2.582)</t>
+  </si>
+  <si>
+    <t>2.188(1.531)</t>
+  </si>
+  <si>
+    <t>73.531(2.582)</t>
+  </si>
+  <si>
+    <t>1139.812(1.531)</t>
+  </si>
+  <si>
+    <t>0.821(0.104)</t>
+  </si>
+  <si>
+    <t>0.199(0.049)</t>
+  </si>
+  <si>
+    <t>1053.005(874.488)</t>
+  </si>
+  <si>
+    <t>78.531(5.008)</t>
+  </si>
+  <si>
+    <t>89.266(5.802)</t>
+  </si>
+  <si>
+    <t>0.844(0.054)</t>
+  </si>
+  <si>
+    <t>0.96(0.062)</t>
+  </si>
+  <si>
+    <t>0.379(0.047)</t>
+  </si>
+  <si>
+    <t>0.009(0.003)</t>
+  </si>
+  <si>
+    <t>31.422(3.939)</t>
+  </si>
+  <si>
+    <t>10.0(3.182)</t>
+  </si>
+  <si>
+    <t>51.578(3.939)</t>
+  </si>
+  <si>
+    <t>1132.0(3.182)</t>
+  </si>
+  <si>
+    <t>0.759(0.069)</t>
+  </si>
+  <si>
+    <t>0.504(0.053)</t>
+  </si>
+  <si>
+    <t>0.95(0.005)</t>
+  </si>
+  <si>
+    <t>2280.486(277.825)</t>
+  </si>
+  <si>
+    <t>69.672(6.008)</t>
+  </si>
+  <si>
+    <t>83.234(7.729)</t>
+  </si>
+  <si>
+    <t>0.749(0.065)</t>
+  </si>
+  <si>
+    <t>0.895(0.083)</t>
+  </si>
+  <si>
+    <t>0.583(0.042)</t>
+  </si>
+  <si>
+    <t>0.008(0.002)</t>
+  </si>
+  <si>
+    <t>48.391(3.481)</t>
+  </si>
+  <si>
+    <t>9.609(2.694)</t>
+  </si>
+  <si>
+    <t>34.609(3.481)</t>
+  </si>
+  <si>
+    <t>1132.391(2.694)</t>
+  </si>
+  <si>
+    <t>0.835(0.041)</t>
+  </si>
+  <si>
+    <t>0.686(0.037)</t>
+  </si>
+  <si>
+    <t>0.964(0.004)</t>
+  </si>
+  <si>
+    <t>2930.159(686.347)</t>
+  </si>
+  <si>
+    <t>79.984(3.336)</t>
+  </si>
+  <si>
+    <t>88.656(5.034)</t>
+  </si>
+  <si>
+    <t>0.86(0.036)</t>
+  </si>
+  <si>
+    <t>0.953(0.054)</t>
+  </si>
+  <si>
+    <t>0.245(0.037)</t>
+  </si>
+  <si>
+    <t>20.344(3.108)</t>
+  </si>
+  <si>
+    <t>3.25(1.633)</t>
+  </si>
+  <si>
+    <t>62.656(3.108)</t>
+  </si>
+  <si>
+    <t>1138.75(1.633)</t>
+  </si>
+  <si>
+    <t>0.863(0.065)</t>
+  </si>
+  <si>
+    <t>0.38(0.048)</t>
+  </si>
+  <si>
+    <t>0.946(0.003)</t>
+  </si>
+  <si>
+    <t>1839.457(59.749)</t>
+  </si>
+  <si>
+    <t>71.922(4.616)</t>
+  </si>
+  <si>
+    <t>81.469(6.664)</t>
+  </si>
+  <si>
+    <t>0.773(0.05)</t>
+  </si>
+  <si>
+    <t>0.876(0.072)</t>
+  </si>
+  <si>
+    <t>0.451(0.038)</t>
+  </si>
+  <si>
+    <t>37.469(3.167)</t>
+  </si>
+  <si>
+    <t>7.516(2.845)</t>
+  </si>
+  <si>
+    <t>45.531(3.167)</t>
+  </si>
+  <si>
+    <t>1134.484(2.845)</t>
+  </si>
+  <si>
+    <t>0.835(0.056)</t>
+  </si>
+  <si>
+    <t>0.585(0.039)</t>
+  </si>
+  <si>
+    <t>0.957(0.004)</t>
+  </si>
+  <si>
+    <t>2415.206(378.303)</t>
   </si>
 </sst>
 </file>
@@ -6829,8 +7633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K59" workbookViewId="0">
-      <selection activeCell="Z97" sqref="Z97"/>
+    <sheetView tabSelected="1" topLeftCell="K67" workbookViewId="0">
+      <selection activeCell="Z101" sqref="Z101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -16005,33 +16809,85 @@
       <c r="AE97" s="4"/>
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
-      <c r="N98" s="4"/>
-      <c r="O98" s="4"/>
-      <c r="P98" s="4"/>
-      <c r="Q98" s="4"/>
-      <c r="R98" s="4"/>
-      <c r="S98" s="4"/>
-      <c r="T98" s="4"/>
-      <c r="U98" s="4"/>
-      <c r="V98" s="4"/>
-      <c r="W98" s="4"/>
-      <c r="X98" s="4"/>
-      <c r="Y98" s="4"/>
-      <c r="Z98" s="4"/>
-      <c r="AA98" s="4" t="s">
+      <c r="A98" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D98" s="4">
+        <v>200</v>
+      </c>
+      <c r="E98" s="4">
+        <v>50</v>
+      </c>
+      <c r="F98" s="4">
+        <v>2</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H98" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>2305</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>2306</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>2307</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>2308</v>
+      </c>
+      <c r="M98" s="4" t="s">
+        <v>2309</v>
+      </c>
+      <c r="N98" s="4" t="s">
+        <v>2026</v>
+      </c>
+      <c r="O98" s="4" t="s">
+        <v>2310</v>
+      </c>
+      <c r="P98" s="4" t="s">
+        <v>2311</v>
+      </c>
+      <c r="Q98" s="4" t="s">
+        <v>2312</v>
+      </c>
+      <c r="R98" s="4" t="s">
+        <v>2313</v>
+      </c>
+      <c r="S98" s="4" t="s">
+        <v>1670</v>
+      </c>
+      <c r="T98" s="4" t="s">
+        <v>2309</v>
+      </c>
+      <c r="U98" s="4" t="s">
+        <v>2314</v>
+      </c>
+      <c r="V98" s="4" t="s">
+        <v>2164</v>
+      </c>
+      <c r="W98" s="4" t="s">
+        <v>2315</v>
+      </c>
+      <c r="X98" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y98" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z98" s="4">
+        <v>150</v>
+      </c>
+      <c r="AA98" t="s">
         <v>50</v>
       </c>
       <c r="AB98" s="4" t="s">
@@ -16046,33 +16902,85 @@
       <c r="AE98" s="4"/>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4"/>
-      <c r="P99" s="4"/>
-      <c r="Q99" s="4"/>
-      <c r="R99" s="4"/>
-      <c r="S99" s="4"/>
-      <c r="T99" s="4"/>
-      <c r="U99" s="4"/>
-      <c r="V99" s="4"/>
-      <c r="W99" s="4"/>
-      <c r="X99" s="4"/>
-      <c r="Y99" s="4"/>
-      <c r="Z99" s="4"/>
-      <c r="AA99" s="4" t="s">
+      <c r="A99" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D99" s="4">
+        <v>200</v>
+      </c>
+      <c r="E99" s="4">
+        <v>50</v>
+      </c>
+      <c r="F99" s="4">
+        <v>2</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H99" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>2316</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>2317</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>2318</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>2319</v>
+      </c>
+      <c r="M99" s="4" t="s">
+        <v>2320</v>
+      </c>
+      <c r="N99" s="4" t="s">
+        <v>2321</v>
+      </c>
+      <c r="O99" s="4" t="s">
+        <v>2322</v>
+      </c>
+      <c r="P99" s="4" t="s">
+        <v>2323</v>
+      </c>
+      <c r="Q99" s="4" t="s">
+        <v>2324</v>
+      </c>
+      <c r="R99" s="4" t="s">
+        <v>2325</v>
+      </c>
+      <c r="S99" s="4" t="s">
+        <v>2326</v>
+      </c>
+      <c r="T99" s="4" t="s">
+        <v>2320</v>
+      </c>
+      <c r="U99" s="4" t="s">
+        <v>2327</v>
+      </c>
+      <c r="V99" s="4" t="s">
+        <v>2234</v>
+      </c>
+      <c r="W99" s="4" t="s">
+        <v>2328</v>
+      </c>
+      <c r="X99" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y99" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z99" s="4">
+        <v>150</v>
+      </c>
+      <c r="AA99" t="s">
         <v>50</v>
       </c>
       <c r="AB99" s="4" t="s">
@@ -16087,33 +16995,85 @@
       <c r="AE99" s="4"/>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
-      <c r="N100" s="4"/>
-      <c r="O100" s="4"/>
-      <c r="P100" s="4"/>
-      <c r="Q100" s="4"/>
-      <c r="R100" s="4"/>
-      <c r="S100" s="4"/>
-      <c r="T100" s="4"/>
-      <c r="U100" s="4"/>
-      <c r="V100" s="4"/>
-      <c r="W100" s="4"/>
-      <c r="X100" s="4"/>
-      <c r="Y100" s="4"/>
-      <c r="Z100" s="4"/>
-      <c r="AA100" s="4" t="s">
+      <c r="A100" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D100" s="4">
+        <v>200</v>
+      </c>
+      <c r="E100" s="4">
+        <v>50</v>
+      </c>
+      <c r="F100" s="4">
+        <v>2</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H100" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>2329</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>2330</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>2331</v>
+      </c>
+      <c r="L100" s="4" t="s">
+        <v>2332</v>
+      </c>
+      <c r="M100" s="4" t="s">
+        <v>2333</v>
+      </c>
+      <c r="N100" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="O100" s="4" t="s">
+        <v>2334</v>
+      </c>
+      <c r="P100" s="4" t="s">
+        <v>2335</v>
+      </c>
+      <c r="Q100" s="4" t="s">
+        <v>2336</v>
+      </c>
+      <c r="R100" s="4" t="s">
+        <v>2337</v>
+      </c>
+      <c r="S100" s="4" t="s">
+        <v>2338</v>
+      </c>
+      <c r="T100" s="4" t="s">
+        <v>2333</v>
+      </c>
+      <c r="U100" s="4" t="s">
+        <v>2339</v>
+      </c>
+      <c r="V100" s="4" t="s">
+        <v>2340</v>
+      </c>
+      <c r="W100" s="4" t="s">
+        <v>2341</v>
+      </c>
+      <c r="X100" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y100" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z100" s="4">
+        <v>150</v>
+      </c>
+      <c r="AA100" t="s">
         <v>50</v>
       </c>
       <c r="AB100" s="4" t="s">
@@ -16128,33 +17088,85 @@
       <c r="AE100" s="4"/>
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4"/>
-      <c r="O101" s="4"/>
-      <c r="P101" s="4"/>
-      <c r="Q101" s="4"/>
-      <c r="R101" s="4"/>
-      <c r="S101" s="4"/>
-      <c r="T101" s="4"/>
-      <c r="U101" s="4"/>
-      <c r="V101" s="4"/>
-      <c r="W101" s="4"/>
-      <c r="X101" s="4"/>
-      <c r="Y101" s="4"/>
-      <c r="Z101" s="4"/>
-      <c r="AA101" s="4" t="s">
+      <c r="A101" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D101" s="4">
+        <v>200</v>
+      </c>
+      <c r="E101" s="4">
+        <v>50</v>
+      </c>
+      <c r="F101" s="4">
+        <v>2</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H101" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>2342</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>2343</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>2344</v>
+      </c>
+      <c r="L101" s="4" t="s">
+        <v>2345</v>
+      </c>
+      <c r="M101" s="4" t="s">
+        <v>2346</v>
+      </c>
+      <c r="N101" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="O101" s="4" t="s">
+        <v>2347</v>
+      </c>
+      <c r="P101" s="4" t="s">
+        <v>2348</v>
+      </c>
+      <c r="Q101" s="4" t="s">
+        <v>2349</v>
+      </c>
+      <c r="R101" s="4" t="s">
+        <v>2350</v>
+      </c>
+      <c r="S101" s="4" t="s">
+        <v>2351</v>
+      </c>
+      <c r="T101" s="4" t="s">
+        <v>2346</v>
+      </c>
+      <c r="U101" s="4" t="s">
+        <v>2352</v>
+      </c>
+      <c r="V101" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="W101" s="4" t="s">
+        <v>2353</v>
+      </c>
+      <c r="X101" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y101" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z101" s="4">
+        <v>150</v>
+      </c>
+      <c r="AA101" t="s">
         <v>50</v>
       </c>
       <c r="AB101" s="4" t="s">
@@ -16169,33 +17181,85 @@
       <c r="AE101" s="4"/>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="4"/>
-      <c r="O102" s="4"/>
-      <c r="P102" s="4"/>
-      <c r="Q102" s="4"/>
-      <c r="R102" s="4"/>
-      <c r="S102" s="4"/>
-      <c r="T102" s="4"/>
-      <c r="U102" s="4"/>
-      <c r="V102" s="4"/>
-      <c r="W102" s="4"/>
-      <c r="X102" s="4"/>
-      <c r="Y102" s="4"/>
-      <c r="Z102" s="4"/>
-      <c r="AA102" s="4" t="s">
+      <c r="A102" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D102" s="4">
+        <v>200</v>
+      </c>
+      <c r="E102" s="4">
+        <v>50</v>
+      </c>
+      <c r="F102" s="4">
+        <v>2</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H102" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>2354</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>2355</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>2356</v>
+      </c>
+      <c r="L102" s="4" t="s">
+        <v>2357</v>
+      </c>
+      <c r="M102" s="4" t="s">
+        <v>2358</v>
+      </c>
+      <c r="N102" s="4" t="s">
+        <v>2359</v>
+      </c>
+      <c r="O102" s="4" t="s">
+        <v>2360</v>
+      </c>
+      <c r="P102" s="4" t="s">
+        <v>2361</v>
+      </c>
+      <c r="Q102" s="4" t="s">
+        <v>2362</v>
+      </c>
+      <c r="R102" s="4" t="s">
+        <v>2363</v>
+      </c>
+      <c r="S102" s="4" t="s">
+        <v>2364</v>
+      </c>
+      <c r="T102" s="4" t="s">
+        <v>2358</v>
+      </c>
+      <c r="U102" s="4" t="s">
+        <v>2365</v>
+      </c>
+      <c r="V102" s="4" t="s">
+        <v>2366</v>
+      </c>
+      <c r="W102" s="4" t="s">
+        <v>2367</v>
+      </c>
+      <c r="X102" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y102" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z102" s="4">
+        <v>150</v>
+      </c>
+      <c r="AA102" t="s">
         <v>50</v>
       </c>
       <c r="AB102" s="4" t="s">
@@ -16210,33 +17274,85 @@
       <c r="AE102" s="4"/>
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
-      <c r="M103" s="4"/>
-      <c r="N103" s="4"/>
-      <c r="O103" s="4"/>
-      <c r="P103" s="4"/>
-      <c r="Q103" s="4"/>
-      <c r="R103" s="4"/>
-      <c r="S103" s="4"/>
-      <c r="T103" s="4"/>
-      <c r="U103" s="4"/>
-      <c r="V103" s="4"/>
-      <c r="W103" s="4"/>
-      <c r="X103" s="4"/>
-      <c r="Y103" s="4"/>
-      <c r="Z103" s="4"/>
-      <c r="AA103" s="4" t="s">
+      <c r="A103" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D103" s="4">
+        <v>200</v>
+      </c>
+      <c r="E103" s="4">
+        <v>50</v>
+      </c>
+      <c r="F103" s="4">
+        <v>2</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H103" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>2368</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>2369</v>
+      </c>
+      <c r="K103" s="4" t="s">
+        <v>2370</v>
+      </c>
+      <c r="L103" s="4" t="s">
+        <v>2371</v>
+      </c>
+      <c r="M103" s="4" t="s">
+        <v>2372</v>
+      </c>
+      <c r="N103" s="4" t="s">
+        <v>2373</v>
+      </c>
+      <c r="O103" s="4" t="s">
+        <v>2374</v>
+      </c>
+      <c r="P103" s="4" t="s">
+        <v>2375</v>
+      </c>
+      <c r="Q103" s="4" t="s">
+        <v>2376</v>
+      </c>
+      <c r="R103" s="4" t="s">
+        <v>2377</v>
+      </c>
+      <c r="S103" s="4" t="s">
+        <v>2378</v>
+      </c>
+      <c r="T103" s="4" t="s">
+        <v>2372</v>
+      </c>
+      <c r="U103" s="4" t="s">
+        <v>2379</v>
+      </c>
+      <c r="V103" s="4" t="s">
+        <v>2380</v>
+      </c>
+      <c r="W103" s="4" t="s">
+        <v>2381</v>
+      </c>
+      <c r="X103" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y103" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z103" s="4">
+        <v>150</v>
+      </c>
+      <c r="AA103" t="s">
         <v>50</v>
       </c>
       <c r="AB103" s="4" t="s">
@@ -16251,33 +17367,85 @@
       <c r="AE103" s="4"/>
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
-      <c r="M104" s="4"/>
-      <c r="N104" s="4"/>
-      <c r="O104" s="4"/>
-      <c r="P104" s="4"/>
-      <c r="Q104" s="4"/>
-      <c r="R104" s="4"/>
-      <c r="S104" s="4"/>
-      <c r="T104" s="4"/>
-      <c r="U104" s="4"/>
-      <c r="V104" s="4"/>
-      <c r="W104" s="4"/>
-      <c r="X104" s="4"/>
-      <c r="Y104" s="4"/>
-      <c r="Z104" s="4"/>
-      <c r="AA104" s="4" t="s">
+      <c r="A104" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D104" s="4">
+        <v>200</v>
+      </c>
+      <c r="E104" s="4">
+        <v>50</v>
+      </c>
+      <c r="F104" s="4">
+        <v>2</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H104" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>2382</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>2383</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>2384</v>
+      </c>
+      <c r="L104" s="4" t="s">
+        <v>2385</v>
+      </c>
+      <c r="M104" s="4" t="s">
+        <v>2386</v>
+      </c>
+      <c r="N104" s="4" t="s">
+        <v>1985</v>
+      </c>
+      <c r="O104" s="4" t="s">
+        <v>2387</v>
+      </c>
+      <c r="P104" s="4" t="s">
+        <v>2388</v>
+      </c>
+      <c r="Q104" s="4" t="s">
+        <v>2389</v>
+      </c>
+      <c r="R104" s="4" t="s">
+        <v>2390</v>
+      </c>
+      <c r="S104" s="4" t="s">
+        <v>2391</v>
+      </c>
+      <c r="T104" s="4" t="s">
+        <v>2386</v>
+      </c>
+      <c r="U104" s="4" t="s">
+        <v>2392</v>
+      </c>
+      <c r="V104" s="4" t="s">
+        <v>2393</v>
+      </c>
+      <c r="W104" s="4" t="s">
+        <v>2394</v>
+      </c>
+      <c r="X104" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y104" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z104" s="4">
+        <v>150</v>
+      </c>
+      <c r="AA104" t="s">
         <v>50</v>
       </c>
       <c r="AB104" s="4" t="s">
@@ -16292,33 +17460,85 @@
       <c r="AE104" s="4"/>
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-      <c r="M105" s="4"/>
-      <c r="N105" s="4"/>
-      <c r="O105" s="4"/>
-      <c r="P105" s="4"/>
-      <c r="Q105" s="4"/>
-      <c r="R105" s="4"/>
-      <c r="S105" s="4"/>
-      <c r="T105" s="4"/>
-      <c r="U105" s="4"/>
-      <c r="V105" s="4"/>
-      <c r="W105" s="4"/>
-      <c r="X105" s="4"/>
-      <c r="Y105" s="4"/>
-      <c r="Z105" s="4"/>
-      <c r="AA105" s="4" t="s">
+      <c r="A105" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D105" s="4">
+        <v>200</v>
+      </c>
+      <c r="E105" s="4">
+        <v>50</v>
+      </c>
+      <c r="F105" s="4">
+        <v>2</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H105" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>2395</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>2396</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>2397</v>
+      </c>
+      <c r="L105" s="4" t="s">
+        <v>2398</v>
+      </c>
+      <c r="M105" s="4" t="s">
+        <v>2399</v>
+      </c>
+      <c r="N105" s="4" t="s">
+        <v>2321</v>
+      </c>
+      <c r="O105" s="4" t="s">
+        <v>2400</v>
+      </c>
+      <c r="P105" s="4" t="s">
+        <v>2401</v>
+      </c>
+      <c r="Q105" s="4" t="s">
+        <v>2402</v>
+      </c>
+      <c r="R105" s="4" t="s">
+        <v>2403</v>
+      </c>
+      <c r="S105" s="4" t="s">
+        <v>2404</v>
+      </c>
+      <c r="T105" s="4" t="s">
+        <v>2399</v>
+      </c>
+      <c r="U105" s="4" t="s">
+        <v>2405</v>
+      </c>
+      <c r="V105" s="4" t="s">
+        <v>2406</v>
+      </c>
+      <c r="W105" s="4" t="s">
+        <v>2407</v>
+      </c>
+      <c r="X105" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y105" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z105" s="4">
+        <v>150</v>
+      </c>
+      <c r="AA105" t="s">
         <v>50</v>
       </c>
       <c r="AB105" s="4" t="s">
@@ -16999,11 +18219,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1580F763-1068-4458-98B2-DF0FB3B79945}">
-  <dimension ref="A1:AD73"/>
+  <dimension ref="A1:AC85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A74" sqref="A74:AD85"/>
+    <sheetView topLeftCell="Q1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z85" sqref="Z85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -17029,11 +18249,10 @@
     <col min="24" max="24" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8.9140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.4140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.08203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="2.08203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="2.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17115,9 +18334,8 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -17199,9 +18417,8 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
@@ -17283,9 +18500,8 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>67</v>
       </c>
@@ -17367,9 +18583,8 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>67</v>
       </c>
@@ -17451,9 +18666,8 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
@@ -17535,9 +18749,8 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -17619,9 +18832,8 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>67</v>
       </c>
@@ -17703,9 +18915,8 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>67</v>
       </c>
@@ -17787,9 +18998,8 @@
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -17871,9 +19081,8 @@
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
@@ -17955,9 +19164,8 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>67</v>
       </c>
@@ -18039,9 +19247,8 @@
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>67</v>
       </c>
@@ -18123,9 +19330,8 @@
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
@@ -18207,9 +19413,8 @@
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
@@ -18291,9 +19496,8 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>67</v>
       </c>
@@ -18375,9 +19579,8 @@
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>67</v>
       </c>
@@ -18459,9 +19662,8 @@
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
@@ -18543,9 +19745,8 @@
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -18627,9 +19828,8 @@
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>67</v>
       </c>
@@ -18711,9 +19911,8 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>67</v>
       </c>
@@ -18795,9 +19994,8 @@
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
@@ -18879,9 +20077,8 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
@@ -18963,9 +20160,8 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>67</v>
       </c>
@@ -19047,9 +20243,8 @@
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>67</v>
       </c>
@@ -19131,9 +20326,8 @@
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
@@ -19215,9 +20409,8 @@
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
@@ -19299,9 +20492,8 @@
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>67</v>
       </c>
@@ -19383,9 +20575,8 @@
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>67</v>
       </c>
@@ -19467,9 +20658,8 @@
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
@@ -19551,9 +20741,8 @@
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
-      <c r="AD30" s="4"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
@@ -19635,9 +20824,8 @@
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
-      <c r="AD31" s="4"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>67</v>
       </c>
@@ -19719,9 +20907,8 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
-      <c r="AD32" s="4"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>67</v>
       </c>
@@ -19803,9 +20990,8 @@
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>30</v>
       </c>
@@ -19887,9 +21073,8 @@
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
-      <c r="AD34" s="4"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>30</v>
       </c>
@@ -19971,9 +21156,8 @@
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
-      <c r="AD35" s="4"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>67</v>
       </c>
@@ -20055,9 +21239,8 @@
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
-      <c r="AD36" s="4"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>67</v>
       </c>
@@ -20139,9 +21322,8 @@
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
-      <c r="AD37" s="4"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>30</v>
       </c>
@@ -20223,9 +21405,8 @@
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
-      <c r="AD38" s="4"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>30</v>
       </c>
@@ -20307,9 +21488,8 @@
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
-      <c r="AD39" s="4"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>67</v>
       </c>
@@ -20391,9 +21571,8 @@
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
-      <c r="AD40" s="4"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>67</v>
       </c>
@@ -20475,9 +21654,8 @@
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
-      <c r="AD41" s="4"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>30</v>
       </c>
@@ -20559,9 +21737,8 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
-      <c r="AD42" s="4"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>30</v>
       </c>
@@ -20643,9 +21820,8 @@
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
-      <c r="AD43" s="4"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>67</v>
       </c>
@@ -20727,9 +21903,8 @@
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
-      <c r="AD44" s="4"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>67</v>
       </c>
@@ -20811,9 +21986,8 @@
       <c r="AA45" s="4"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
-      <c r="AD45" s="4"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>30</v>
       </c>
@@ -20895,9 +22069,8 @@
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
-      <c r="AD46" s="4"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>30</v>
       </c>
@@ -20979,9 +22152,8 @@
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
-      <c r="AD47" s="4"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>67</v>
       </c>
@@ -21063,9 +22235,8 @@
       <c r="AA48" s="4"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
-      <c r="AD48" s="4"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>67</v>
       </c>
@@ -21147,9 +22318,8 @@
       <c r="AA49" s="4"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
-      <c r="AD49" s="4"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>30</v>
       </c>
@@ -21231,9 +22401,8 @@
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
-      <c r="AD50" s="4"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>30</v>
       </c>
@@ -21315,9 +22484,8 @@
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
-      <c r="AD51" s="4"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>67</v>
       </c>
@@ -21399,9 +22567,8 @@
       <c r="AA52" s="4"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
-      <c r="AD52" s="4"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>67</v>
       </c>
@@ -21483,9 +22650,8 @@
       <c r="AA53" s="4"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
-      <c r="AD53" s="4"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>30</v>
       </c>
@@ -21567,9 +22733,8 @@
       <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
-      <c r="AD54" s="4"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>30</v>
       </c>
@@ -21651,9 +22816,8 @@
       <c r="AA55" s="4"/>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
-      <c r="AD55" s="4"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>67</v>
       </c>
@@ -21735,9 +22899,8 @@
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
-      <c r="AD56" s="4"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>67</v>
       </c>
@@ -21819,9 +22982,8 @@
       <c r="AA57" s="4"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
-      <c r="AD57" s="4"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>30</v>
       </c>
@@ -21901,7 +23063,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>30</v>
       </c>
@@ -21981,7 +23143,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>67</v>
       </c>
@@ -22061,7 +23223,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>67</v>
       </c>
@@ -22141,7 +23303,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>30</v>
       </c>
@@ -22221,7 +23383,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>30</v>
       </c>
@@ -22301,7 +23463,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>67</v>
       </c>
@@ -23099,6 +24261,966 @@
       </c>
       <c r="Z73" s="4">
         <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D74" s="4">
+        <v>200</v>
+      </c>
+      <c r="E74" s="4">
+        <v>50</v>
+      </c>
+      <c r="F74" s="4">
+        <v>2</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H74" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>2250</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>2251</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>2252</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>2253</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>2254</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>2255</v>
+      </c>
+      <c r="O74" s="4" t="s">
+        <v>2256</v>
+      </c>
+      <c r="P74" s="4" t="s">
+        <v>2257</v>
+      </c>
+      <c r="Q74" s="4" t="s">
+        <v>2258</v>
+      </c>
+      <c r="R74" s="4" t="s">
+        <v>2259</v>
+      </c>
+      <c r="S74" s="4" t="s">
+        <v>2260</v>
+      </c>
+      <c r="T74" s="4" t="s">
+        <v>2254</v>
+      </c>
+      <c r="U74" s="4" t="s">
+        <v>2261</v>
+      </c>
+      <c r="V74" s="4" t="s">
+        <v>2262</v>
+      </c>
+      <c r="W74" s="4" t="s">
+        <v>2263</v>
+      </c>
+      <c r="X74" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y74" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75" s="4">
+        <v>200</v>
+      </c>
+      <c r="E75" s="4">
+        <v>50</v>
+      </c>
+      <c r="F75" s="4">
+        <v>2</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H75" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>2264</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>2265</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>2266</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>2267</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>2268</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O75" s="4" t="s">
+        <v>2269</v>
+      </c>
+      <c r="P75" s="4" t="s">
+        <v>2270</v>
+      </c>
+      <c r="Q75" s="4" t="s">
+        <v>2271</v>
+      </c>
+      <c r="R75" s="4" t="s">
+        <v>2272</v>
+      </c>
+      <c r="S75" s="4" t="s">
+        <v>2273</v>
+      </c>
+      <c r="T75" s="4" t="s">
+        <v>2268</v>
+      </c>
+      <c r="U75" s="4" t="s">
+        <v>2274</v>
+      </c>
+      <c r="V75" s="4" t="s">
+        <v>2275</v>
+      </c>
+      <c r="W75" s="4" t="s">
+        <v>2276</v>
+      </c>
+      <c r="X75" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y75" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76" s="4">
+        <v>200</v>
+      </c>
+      <c r="E76" s="4">
+        <v>50</v>
+      </c>
+      <c r="F76" s="4">
+        <v>2</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H76" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>2277</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>2278</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>2279</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>2280</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>2281</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>2282</v>
+      </c>
+      <c r="O76" s="4" t="s">
+        <v>2283</v>
+      </c>
+      <c r="P76" s="4" t="s">
+        <v>2284</v>
+      </c>
+      <c r="Q76" s="4" t="s">
+        <v>2285</v>
+      </c>
+      <c r="R76" s="4" t="s">
+        <v>2286</v>
+      </c>
+      <c r="S76" s="4" t="s">
+        <v>2287</v>
+      </c>
+      <c r="T76" s="4" t="s">
+        <v>2281</v>
+      </c>
+      <c r="U76" s="4" t="s">
+        <v>2288</v>
+      </c>
+      <c r="V76" s="4" t="s">
+        <v>2289</v>
+      </c>
+      <c r="W76" s="4" t="s">
+        <v>2290</v>
+      </c>
+      <c r="X76" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y76" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77" s="4">
+        <v>200</v>
+      </c>
+      <c r="E77" s="4">
+        <v>50</v>
+      </c>
+      <c r="F77" s="4">
+        <v>2</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H77" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>2291</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>2292</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>2293</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>2294</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>2295</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>2296</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>2297</v>
+      </c>
+      <c r="P77" s="4" t="s">
+        <v>2298</v>
+      </c>
+      <c r="Q77" s="4" t="s">
+        <v>2299</v>
+      </c>
+      <c r="R77" s="4" t="s">
+        <v>2300</v>
+      </c>
+      <c r="S77" s="4" t="s">
+        <v>2301</v>
+      </c>
+      <c r="T77" s="4" t="s">
+        <v>2295</v>
+      </c>
+      <c r="U77" s="4" t="s">
+        <v>2302</v>
+      </c>
+      <c r="V77" s="4" t="s">
+        <v>2303</v>
+      </c>
+      <c r="W77" s="4" t="s">
+        <v>2304</v>
+      </c>
+      <c r="X77" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y77" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D78" s="4">
+        <v>200</v>
+      </c>
+      <c r="E78" s="4">
+        <v>50</v>
+      </c>
+      <c r="F78" s="4">
+        <v>2</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H78" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>2140</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>2141</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>2142</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>2143</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>2144</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O78" s="4" t="s">
+        <v>2145</v>
+      </c>
+      <c r="P78" s="4" t="s">
+        <v>2146</v>
+      </c>
+      <c r="Q78" s="4" t="s">
+        <v>2147</v>
+      </c>
+      <c r="R78" s="4" t="s">
+        <v>2148</v>
+      </c>
+      <c r="S78" s="4" t="s">
+        <v>2149</v>
+      </c>
+      <c r="T78" s="4" t="s">
+        <v>2144</v>
+      </c>
+      <c r="U78" s="4" t="s">
+        <v>2150</v>
+      </c>
+      <c r="V78" s="4" t="s">
+        <v>2151</v>
+      </c>
+      <c r="W78" s="4" t="s">
+        <v>2152</v>
+      </c>
+      <c r="X78" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y78" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z78" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D79" s="4">
+        <v>200</v>
+      </c>
+      <c r="E79" s="4">
+        <v>50</v>
+      </c>
+      <c r="F79" s="4">
+        <v>2</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H79" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>2153</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>2154</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>2155</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>2156</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>2157</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O79" s="4" t="s">
+        <v>2158</v>
+      </c>
+      <c r="P79" s="4" t="s">
+        <v>2159</v>
+      </c>
+      <c r="Q79" s="4" t="s">
+        <v>2160</v>
+      </c>
+      <c r="R79" s="4" t="s">
+        <v>2161</v>
+      </c>
+      <c r="S79" s="4" t="s">
+        <v>2162</v>
+      </c>
+      <c r="T79" s="4" t="s">
+        <v>2157</v>
+      </c>
+      <c r="U79" s="4" t="s">
+        <v>2163</v>
+      </c>
+      <c r="V79" s="4" t="s">
+        <v>2164</v>
+      </c>
+      <c r="W79" s="4" t="s">
+        <v>2165</v>
+      </c>
+      <c r="X79" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y79" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z79" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80" s="4">
+        <v>200</v>
+      </c>
+      <c r="E80" s="4">
+        <v>50</v>
+      </c>
+      <c r="F80" s="4">
+        <v>2</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H80" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>2166</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>2167</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>2168</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>2169</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>2170</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>2171</v>
+      </c>
+      <c r="O80" s="4" t="s">
+        <v>2172</v>
+      </c>
+      <c r="P80" s="4" t="s">
+        <v>2173</v>
+      </c>
+      <c r="Q80" s="4" t="s">
+        <v>2174</v>
+      </c>
+      <c r="R80" s="4" t="s">
+        <v>2175</v>
+      </c>
+      <c r="S80" s="4" t="s">
+        <v>2176</v>
+      </c>
+      <c r="T80" s="4" t="s">
+        <v>2170</v>
+      </c>
+      <c r="U80" s="4" t="s">
+        <v>2177</v>
+      </c>
+      <c r="V80" s="4" t="s">
+        <v>2178</v>
+      </c>
+      <c r="W80" s="4" t="s">
+        <v>2179</v>
+      </c>
+      <c r="X80" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y80" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z80" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" s="4">
+        <v>200</v>
+      </c>
+      <c r="E81" s="4">
+        <v>50</v>
+      </c>
+      <c r="F81" s="4">
+        <v>2</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H81" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>2180</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>2181</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>2182</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>2183</v>
+      </c>
+      <c r="M81" s="4" t="s">
+        <v>2184</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>2185</v>
+      </c>
+      <c r="O81" s="4" t="s">
+        <v>2186</v>
+      </c>
+      <c r="P81" s="4" t="s">
+        <v>2187</v>
+      </c>
+      <c r="Q81" s="4" t="s">
+        <v>2188</v>
+      </c>
+      <c r="R81" s="4" t="s">
+        <v>2189</v>
+      </c>
+      <c r="S81" s="4" t="s">
+        <v>2190</v>
+      </c>
+      <c r="T81" s="4" t="s">
+        <v>2184</v>
+      </c>
+      <c r="U81" s="4" t="s">
+        <v>2191</v>
+      </c>
+      <c r="V81" s="4" t="s">
+        <v>2192</v>
+      </c>
+      <c r="W81" s="4" t="s">
+        <v>2193</v>
+      </c>
+      <c r="X81" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y81" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z81" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D82" s="4">
+        <v>200</v>
+      </c>
+      <c r="E82" s="4">
+        <v>50</v>
+      </c>
+      <c r="F82" s="4">
+        <v>2</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H82" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>2194</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>2195</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>2196</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>2197</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>2198</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>2199</v>
+      </c>
+      <c r="O82" s="4" t="s">
+        <v>2200</v>
+      </c>
+      <c r="P82" s="4" t="s">
+        <v>2201</v>
+      </c>
+      <c r="Q82" s="4" t="s">
+        <v>2202</v>
+      </c>
+      <c r="R82" s="4" t="s">
+        <v>2203</v>
+      </c>
+      <c r="S82" s="4" t="s">
+        <v>2204</v>
+      </c>
+      <c r="T82" s="4" t="s">
+        <v>2198</v>
+      </c>
+      <c r="U82" s="4" t="s">
+        <v>2205</v>
+      </c>
+      <c r="V82" s="4" t="s">
+        <v>2206</v>
+      </c>
+      <c r="W82" s="4" t="s">
+        <v>2207</v>
+      </c>
+      <c r="X82" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y82" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z82" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D83" s="4">
+        <v>200</v>
+      </c>
+      <c r="E83" s="4">
+        <v>50</v>
+      </c>
+      <c r="F83" s="4">
+        <v>2</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H83" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>2208</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>2209</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>2210</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>2211</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>2212</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>2213</v>
+      </c>
+      <c r="O83" s="4" t="s">
+        <v>2214</v>
+      </c>
+      <c r="P83" s="4" t="s">
+        <v>2215</v>
+      </c>
+      <c r="Q83" s="4" t="s">
+        <v>2216</v>
+      </c>
+      <c r="R83" s="4" t="s">
+        <v>2217</v>
+      </c>
+      <c r="S83" s="4" t="s">
+        <v>2218</v>
+      </c>
+      <c r="T83" s="4" t="s">
+        <v>2212</v>
+      </c>
+      <c r="U83" s="4" t="s">
+        <v>2219</v>
+      </c>
+      <c r="V83" s="4" t="s">
+        <v>2220</v>
+      </c>
+      <c r="W83" s="4" t="s">
+        <v>2221</v>
+      </c>
+      <c r="X83" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y83" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z83" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D84" s="4">
+        <v>200</v>
+      </c>
+      <c r="E84" s="4">
+        <v>50</v>
+      </c>
+      <c r="F84" s="4">
+        <v>2</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H84" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>2222</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>2223</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>2224</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>2226</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>2227</v>
+      </c>
+      <c r="O84" s="4" t="s">
+        <v>2228</v>
+      </c>
+      <c r="P84" s="4" t="s">
+        <v>2229</v>
+      </c>
+      <c r="Q84" s="4" t="s">
+        <v>2230</v>
+      </c>
+      <c r="R84" s="4" t="s">
+        <v>2231</v>
+      </c>
+      <c r="S84" s="4" t="s">
+        <v>2232</v>
+      </c>
+      <c r="T84" s="4" t="s">
+        <v>2226</v>
+      </c>
+      <c r="U84" s="4" t="s">
+        <v>2233</v>
+      </c>
+      <c r="V84" s="4" t="s">
+        <v>2234</v>
+      </c>
+      <c r="W84" s="4" t="s">
+        <v>2235</v>
+      </c>
+      <c r="X84" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y84" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z84" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D85" s="4">
+        <v>200</v>
+      </c>
+      <c r="E85" s="4">
+        <v>50</v>
+      </c>
+      <c r="F85" s="4">
+        <v>2</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H85" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>2236</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>2237</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>2238</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>2239</v>
+      </c>
+      <c r="M85" s="4" t="s">
+        <v>2240</v>
+      </c>
+      <c r="N85" s="4" t="s">
+        <v>2241</v>
+      </c>
+      <c r="O85" s="4" t="s">
+        <v>2242</v>
+      </c>
+      <c r="P85" s="4" t="s">
+        <v>2243</v>
+      </c>
+      <c r="Q85" s="4" t="s">
+        <v>2244</v>
+      </c>
+      <c r="R85" s="4" t="s">
+        <v>2245</v>
+      </c>
+      <c r="S85" s="4" t="s">
+        <v>2246</v>
+      </c>
+      <c r="T85" s="4" t="s">
+        <v>2240</v>
+      </c>
+      <c r="U85" s="4" t="s">
+        <v>2247</v>
+      </c>
+      <c r="V85" s="4" t="s">
+        <v>2248</v>
+      </c>
+      <c r="W85" s="4" t="s">
+        <v>2249</v>
+      </c>
+      <c r="X85" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y85" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z85" s="4">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/aug_pc_result/data_augment.xlsx
+++ b/aug_pc_result/data_augment.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CausalLearning\code\aug_pc_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF8B8FE-44D0-4B6B-AD3C-CFD866CC7BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8BE287-9D29-406C-8046-7B00F78FA917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kci" sheetId="1" r:id="rId1"/>
     <sheet name="spearman" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">kci!$A$1:$AE$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">kci!$A$1:$AE$117</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">spearman!$A$1:$Z$73</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4545" uniqueCount="2408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4629" uniqueCount="2502">
   <si>
     <t>noise</t>
   </si>
@@ -6138,18 +6138,6 @@
     <t>35.297(20.06)</t>
   </si>
   <si>
-    <t>56.85(253.724)</t>
-  </si>
-  <si>
-    <t>0.872(0.16)</t>
-  </si>
-  <si>
-    <t>0.937(0.029)</t>
-  </si>
-  <si>
-    <t>0.948(0.027)</t>
-  </si>
-  <si>
     <t>76.766(4.371)</t>
   </si>
   <si>
@@ -7255,6 +7243,300 @@
   </si>
   <si>
     <t>2415.206(378.303)</t>
+  </si>
+  <si>
+    <t>77.5(4.643)</t>
+  </si>
+  <si>
+    <t>85.5(6.205)</t>
+  </si>
+  <si>
+    <t>0.833(0.05)</t>
+  </si>
+  <si>
+    <t>0.919(0.067)</t>
+  </si>
+  <si>
+    <t>0.279(0.043)</t>
+  </si>
+  <si>
+    <t>23.141(3.532)</t>
+  </si>
+  <si>
+    <t>3.547(2.054)</t>
+  </si>
+  <si>
+    <t>59.859(3.532)</t>
+  </si>
+  <si>
+    <t>1138.453(2.054)</t>
+  </si>
+  <si>
+    <t>0.868(0.073)</t>
+  </si>
+  <si>
+    <t>0.421(0.053)</t>
+  </si>
+  <si>
+    <t>0.948(0.004)</t>
+  </si>
+  <si>
+    <t>0.484(0.049)</t>
+  </si>
+  <si>
+    <t>79.578(3.833)</t>
+  </si>
+  <si>
+    <t>88.438(5.369)</t>
+  </si>
+  <si>
+    <t>0.856(0.041)</t>
+  </si>
+  <si>
+    <t>0.951(0.058)</t>
+  </si>
+  <si>
+    <t>0.258(0.044)</t>
+  </si>
+  <si>
+    <t>21.453(3.625)</t>
+  </si>
+  <si>
+    <t>6.547(2.39)</t>
+  </si>
+  <si>
+    <t>61.547(3.625)</t>
+  </si>
+  <si>
+    <t>1135.453(2.39)</t>
+  </si>
+  <si>
+    <t>0.768(0.074)</t>
+  </si>
+  <si>
+    <t>0.385(0.053)</t>
+  </si>
+  <si>
+    <t>0.944(0.004)</t>
+  </si>
+  <si>
+    <t>0.562(0.107)</t>
+  </si>
+  <si>
+    <t>81.531(1.851)</t>
+  </si>
+  <si>
+    <t>91.188(3.318)</t>
+  </si>
+  <si>
+    <t>0.877(0.02)</t>
+  </si>
+  <si>
+    <t>0.981(0.036)</t>
+  </si>
+  <si>
+    <t>0.093(0.034)</t>
+  </si>
+  <si>
+    <t>7.703(2.86)</t>
+  </si>
+  <si>
+    <t>1.578(1.257)</t>
+  </si>
+  <si>
+    <t>75.297(2.86)</t>
+  </si>
+  <si>
+    <t>1140.422(1.257)</t>
+  </si>
+  <si>
+    <t>0.841(0.109)</t>
+  </si>
+  <si>
+    <t>0.165(0.052)</t>
+  </si>
+  <si>
+    <t>940.301(1006.859)</t>
+  </si>
+  <si>
+    <t>81.688(2.069)</t>
+  </si>
+  <si>
+    <t>91.953(3.701)</t>
+  </si>
+  <si>
+    <t>0.989(0.04)</t>
+  </si>
+  <si>
+    <t>0.099(0.031)</t>
+  </si>
+  <si>
+    <t>8.219(2.542)</t>
+  </si>
+  <si>
+    <t>1.828(1.409)</t>
+  </si>
+  <si>
+    <t>74.781(2.542)</t>
+  </si>
+  <si>
+    <t>1140.172(1.409)</t>
+  </si>
+  <si>
+    <t>0.831(0.112)</t>
+  </si>
+  <si>
+    <t>0.175(0.049)</t>
+  </si>
+  <si>
+    <t>976.825(961.502)</t>
+  </si>
+  <si>
+    <t>75.0(5.228)</t>
+  </si>
+  <si>
+    <t>84.891(6.857)</t>
+  </si>
+  <si>
+    <t>0.806(0.056)</t>
+  </si>
+  <si>
+    <t>0.913(0.074)</t>
+  </si>
+  <si>
+    <t>0.405(0.048)</t>
+  </si>
+  <si>
+    <t>33.656(3.949)</t>
+  </si>
+  <si>
+    <t>8.375(2.4)</t>
+  </si>
+  <si>
+    <t>49.344(3.949)</t>
+  </si>
+  <si>
+    <t>1133.625(2.4)</t>
+  </si>
+  <si>
+    <t>0.801(0.053)</t>
+  </si>
+  <si>
+    <t>0.537(0.05)</t>
+  </si>
+  <si>
+    <t>0.464(0.073)</t>
+  </si>
+  <si>
+    <t>68.359(6.163)</t>
+  </si>
+  <si>
+    <t>79.734(8.189)</t>
+  </si>
+  <si>
+    <t>0.735(0.066)</t>
+  </si>
+  <si>
+    <t>0.857(0.088)</t>
+  </si>
+  <si>
+    <t>0.554(0.046)</t>
+  </si>
+  <si>
+    <t>46.016(3.844)</t>
+  </si>
+  <si>
+    <t>8.234(2.587)</t>
+  </si>
+  <si>
+    <t>36.984(3.844)</t>
+  </si>
+  <si>
+    <t>1133.766(2.587)</t>
+  </si>
+  <si>
+    <t>0.849(0.044)</t>
+  </si>
+  <si>
+    <t>0.67(0.041)</t>
+  </si>
+  <si>
+    <t>0.963(0.004)</t>
+  </si>
+  <si>
+    <t>0.435(0.059)</t>
+  </si>
+  <si>
+    <t>81.953(2.578)</t>
+  </si>
+  <si>
+    <t>90.594(4.521)</t>
+  </si>
+  <si>
+    <t>0.881(0.028)</t>
+  </si>
+  <si>
+    <t>0.974(0.049)</t>
+  </si>
+  <si>
+    <t>0.182(0.036)</t>
+  </si>
+  <si>
+    <t>15.125(3.026)</t>
+  </si>
+  <si>
+    <t>3.969(2.123)</t>
+  </si>
+  <si>
+    <t>67.875(3.026)</t>
+  </si>
+  <si>
+    <t>1138.031(2.123)</t>
+  </si>
+  <si>
+    <t>0.798(0.091)</t>
+  </si>
+  <si>
+    <t>0.941(0.003)</t>
+  </si>
+  <si>
+    <t>0.439(0.063)</t>
+  </si>
+  <si>
+    <t>73.891(4.698)</t>
+  </si>
+  <si>
+    <t>84.266(6.956)</t>
+  </si>
+  <si>
+    <t>0.795(0.051)</t>
+  </si>
+  <si>
+    <t>0.906(0.075)</t>
+  </si>
+  <si>
+    <t>0.427(0.028)</t>
+  </si>
+  <si>
+    <t>0.006(0.003)</t>
+  </si>
+  <si>
+    <t>35.438(2.295)</t>
+  </si>
+  <si>
+    <t>7.078(3.098)</t>
+  </si>
+  <si>
+    <t>47.562(2.295)</t>
+  </si>
+  <si>
+    <t>1134.922(3.098)</t>
+  </si>
+  <si>
+    <t>0.565(0.03)</t>
+  </si>
+  <si>
+    <t>0.373(0.041)</t>
   </si>
 </sst>
 </file>
@@ -7631,10 +7913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE121"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K67" workbookViewId="0">
-      <selection activeCell="Z101" sqref="Z101"/>
+    <sheetView topLeftCell="O84" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:Z109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14629,7 +14911,7 @@
         <v>49</v>
       </c>
       <c r="Z74" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA74" s="4" t="s">
         <v>50</v>
@@ -14724,7 +15006,7 @@
         <v>49</v>
       </c>
       <c r="Z75" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA75" s="4" t="s">
         <v>50</v>
@@ -14819,7 +15101,7 @@
         <v>49</v>
       </c>
       <c r="Z76" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA76" s="4" t="s">
         <v>50</v>
@@ -14914,7 +15196,7 @@
         <v>49</v>
       </c>
       <c r="Z77" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA77" s="4" t="s">
         <v>50</v>
@@ -15403,9 +15685,7 @@
       <c r="AD82" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AE82" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="AE82" s="4"/>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
@@ -15498,9 +15778,7 @@
       <c r="AD83" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AE83" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="AE83" s="4"/>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
@@ -15593,9 +15871,7 @@
       <c r="AD84" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AE84" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="AE84" s="4"/>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
@@ -15688,9 +15964,7 @@
       <c r="AD85" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AE85" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="AE85" s="4"/>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
@@ -15712,55 +15986,55 @@
         <v>2</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="H86" s="4">
         <v>8888</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>1879</v>
+        <v>2035</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>1880</v>
+        <v>2036</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>1881</v>
+        <v>2037</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>1882</v>
+        <v>2038</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>1883</v>
+        <v>2039</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>1188</v>
+        <v>2026</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>1884</v>
+        <v>2040</v>
       </c>
       <c r="P86" s="4" t="s">
-        <v>1885</v>
+        <v>2041</v>
       </c>
       <c r="Q86" s="4" t="s">
-        <v>1886</v>
+        <v>2042</v>
       </c>
       <c r="R86" s="4" t="s">
-        <v>1887</v>
+        <v>2043</v>
       </c>
       <c r="S86" s="4" t="s">
-        <v>1888</v>
+        <v>2044</v>
       </c>
       <c r="T86" s="4" t="s">
-        <v>1883</v>
+        <v>2039</v>
       </c>
       <c r="U86" s="4" t="s">
-        <v>1889</v>
+        <v>2045</v>
       </c>
       <c r="V86" s="4" t="s">
-        <v>1890</v>
+        <v>2046</v>
       </c>
       <c r="W86" s="4" t="s">
-        <v>2035</v>
+        <v>2047</v>
       </c>
       <c r="X86" s="4" t="s">
         <v>48</v>
@@ -15793,7 +16067,7 @@
         <v>31</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D87" s="4">
         <v>200</v>
@@ -15805,55 +16079,55 @@
         <v>2</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="H87" s="4">
         <v>8888</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>1892</v>
+        <v>2048</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>1893</v>
+        <v>2049</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>1894</v>
+        <v>2050</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>1895</v>
+        <v>2051</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>1896</v>
+        <v>2052</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>1088</v>
+        <v>2053</v>
       </c>
       <c r="O87" s="4" t="s">
-        <v>1897</v>
+        <v>2054</v>
       </c>
       <c r="P87" s="4" t="s">
-        <v>1898</v>
+        <v>2055</v>
       </c>
       <c r="Q87" s="4" t="s">
-        <v>1899</v>
+        <v>2056</v>
       </c>
       <c r="R87" s="4" t="s">
-        <v>1900</v>
+        <v>2057</v>
       </c>
       <c r="S87" s="4" t="s">
-        <v>1901</v>
+        <v>2058</v>
       </c>
       <c r="T87" s="4" t="s">
-        <v>1896</v>
+        <v>2052</v>
       </c>
       <c r="U87" s="4" t="s">
-        <v>1902</v>
+        <v>2059</v>
       </c>
       <c r="V87" s="4" t="s">
-        <v>1903</v>
+        <v>2060</v>
       </c>
       <c r="W87" s="4" t="s">
-        <v>2036</v>
+        <v>2061</v>
       </c>
       <c r="X87" s="4" t="s">
         <v>48</v>
@@ -15880,13 +16154,13 @@
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D88" s="4">
         <v>200</v>
@@ -15898,55 +16172,55 @@
         <v>2</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="H88" s="4">
         <v>8888</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>1905</v>
+        <v>2062</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>1906</v>
+        <v>2063</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>1907</v>
+        <v>2064</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>1908</v>
+        <v>2065</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>1909</v>
+        <v>2066</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>1139</v>
+        <v>1188</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>1910</v>
+        <v>2067</v>
       </c>
       <c r="P88" s="4" t="s">
-        <v>1911</v>
+        <v>2068</v>
       </c>
       <c r="Q88" s="4" t="s">
-        <v>1912</v>
+        <v>2069</v>
       </c>
       <c r="R88" s="4" t="s">
-        <v>1913</v>
+        <v>2070</v>
       </c>
       <c r="S88" s="4" t="s">
-        <v>1914</v>
+        <v>2071</v>
       </c>
       <c r="T88" s="4" t="s">
-        <v>1909</v>
+        <v>2066</v>
       </c>
       <c r="U88" s="4" t="s">
-        <v>1915</v>
+        <v>2072</v>
       </c>
       <c r="V88" s="4" t="s">
-        <v>1916</v>
+        <v>2073</v>
       </c>
       <c r="W88" s="4" t="s">
-        <v>2037</v>
+        <v>2074</v>
       </c>
       <c r="X88" s="4" t="s">
         <v>48</v>
@@ -15973,7 +16247,7 @@
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>31</v>
@@ -15991,55 +16265,55 @@
         <v>2</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="H89" s="4">
         <v>8888</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>1918</v>
+        <v>2075</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>1919</v>
+        <v>2076</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>1920</v>
+        <v>2077</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>1921</v>
+        <v>2078</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>1922</v>
+        <v>2079</v>
       </c>
       <c r="N89" s="4" t="s">
         <v>1188</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>1923</v>
+        <v>2080</v>
       </c>
       <c r="P89" s="4" t="s">
-        <v>1924</v>
+        <v>2081</v>
       </c>
       <c r="Q89" s="4" t="s">
-        <v>1925</v>
+        <v>2082</v>
       </c>
       <c r="R89" s="4" t="s">
-        <v>1926</v>
+        <v>2083</v>
       </c>
       <c r="S89" s="4" t="s">
-        <v>1927</v>
+        <v>2084</v>
       </c>
       <c r="T89" s="4" t="s">
-        <v>1922</v>
+        <v>2079</v>
       </c>
       <c r="U89" s="4" t="s">
-        <v>1928</v>
+        <v>2085</v>
       </c>
       <c r="V89" s="4" t="s">
-        <v>1929</v>
+        <v>2073</v>
       </c>
       <c r="W89" s="4" t="s">
-        <v>2038</v>
+        <v>2086</v>
       </c>
       <c r="X89" s="4" t="s">
         <v>48</v>
@@ -16066,7 +16340,7 @@
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>31</v>
@@ -16090,49 +16364,49 @@
         <v>8888</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>2039</v>
+        <v>2087</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>2040</v>
+        <v>2088</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>2041</v>
+        <v>2089</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>2042</v>
+        <v>2090</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>2043</v>
+        <v>2091</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>2026</v>
+        <v>2053</v>
       </c>
       <c r="O90" s="4" t="s">
-        <v>2044</v>
+        <v>2092</v>
       </c>
       <c r="P90" s="4" t="s">
-        <v>2045</v>
+        <v>2093</v>
       </c>
       <c r="Q90" s="4" t="s">
-        <v>2046</v>
+        <v>2094</v>
       </c>
       <c r="R90" s="4" t="s">
-        <v>2047</v>
+        <v>2095</v>
       </c>
       <c r="S90" s="4" t="s">
-        <v>2048</v>
+        <v>2096</v>
       </c>
       <c r="T90" s="4" t="s">
-        <v>2043</v>
+        <v>2091</v>
       </c>
       <c r="U90" s="4" t="s">
-        <v>2049</v>
+        <v>2097</v>
       </c>
       <c r="V90" s="4" t="s">
-        <v>2050</v>
+        <v>2098</v>
       </c>
       <c r="W90" s="4" t="s">
-        <v>2051</v>
+        <v>2099</v>
       </c>
       <c r="X90" s="4" t="s">
         <v>48</v>
@@ -16159,7 +16433,7 @@
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>31</v>
@@ -16183,49 +16457,49 @@
         <v>8888</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>2052</v>
+        <v>2100</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>2053</v>
+        <v>2101</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>2054</v>
+        <v>2102</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>2055</v>
+        <v>2090</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>2056</v>
+        <v>2103</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>2057</v>
+        <v>2104</v>
       </c>
       <c r="O91" s="4" t="s">
-        <v>2058</v>
+        <v>2105</v>
       </c>
       <c r="P91" s="4" t="s">
-        <v>2059</v>
+        <v>2106</v>
       </c>
       <c r="Q91" s="4" t="s">
-        <v>2060</v>
+        <v>2107</v>
       </c>
       <c r="R91" s="4" t="s">
-        <v>2061</v>
+        <v>2108</v>
       </c>
       <c r="S91" s="4" t="s">
-        <v>2062</v>
+        <v>2109</v>
       </c>
       <c r="T91" s="4" t="s">
-        <v>2056</v>
+        <v>2103</v>
       </c>
       <c r="U91" s="4" t="s">
-        <v>2063</v>
+        <v>2110</v>
       </c>
       <c r="V91" s="4" t="s">
-        <v>2064</v>
+        <v>1992</v>
       </c>
       <c r="W91" s="4" t="s">
-        <v>2065</v>
+        <v>2111</v>
       </c>
       <c r="X91" s="4" t="s">
         <v>48</v>
@@ -16252,7 +16526,7 @@
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>31</v>
@@ -16276,49 +16550,49 @@
         <v>8888</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>2066</v>
+        <v>2112</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>2067</v>
+        <v>2113</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>2068</v>
+        <v>2114</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>2069</v>
+        <v>2115</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>2070</v>
+        <v>2116</v>
       </c>
       <c r="N92" s="4" t="s">
         <v>1188</v>
       </c>
       <c r="O92" s="4" t="s">
-        <v>2071</v>
+        <v>2117</v>
       </c>
       <c r="P92" s="4" t="s">
-        <v>2072</v>
+        <v>821</v>
       </c>
       <c r="Q92" s="4" t="s">
-        <v>2073</v>
+        <v>2118</v>
       </c>
       <c r="R92" s="4" t="s">
-        <v>2074</v>
+        <v>2119</v>
       </c>
       <c r="S92" s="4" t="s">
-        <v>2075</v>
+        <v>2120</v>
       </c>
       <c r="T92" s="4" t="s">
-        <v>2070</v>
+        <v>2116</v>
       </c>
       <c r="U92" s="4" t="s">
-        <v>2076</v>
+        <v>2121</v>
       </c>
       <c r="V92" s="4" t="s">
-        <v>2077</v>
+        <v>1966</v>
       </c>
       <c r="W92" s="4" t="s">
-        <v>2078</v>
+        <v>2122</v>
       </c>
       <c r="X92" s="4" t="s">
         <v>48</v>
@@ -16345,7 +16619,7 @@
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>31</v>
@@ -16369,49 +16643,49 @@
         <v>8888</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>2079</v>
+        <v>2123</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>2080</v>
+        <v>2124</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>2081</v>
+        <v>2125</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>2082</v>
+        <v>2126</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>2083</v>
+        <v>2127</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>1188</v>
+        <v>2053</v>
       </c>
       <c r="O93" s="4" t="s">
-        <v>2084</v>
+        <v>2128</v>
       </c>
       <c r="P93" s="4" t="s">
-        <v>2085</v>
+        <v>2129</v>
       </c>
       <c r="Q93" s="4" t="s">
-        <v>2086</v>
+        <v>2130</v>
       </c>
       <c r="R93" s="4" t="s">
-        <v>2087</v>
+        <v>2131</v>
       </c>
       <c r="S93" s="4" t="s">
-        <v>2088</v>
+        <v>2132</v>
       </c>
       <c r="T93" s="4" t="s">
-        <v>2083</v>
+        <v>2127</v>
       </c>
       <c r="U93" s="4" t="s">
-        <v>2089</v>
+        <v>2133</v>
       </c>
       <c r="V93" s="4" t="s">
-        <v>2077</v>
+        <v>2134</v>
       </c>
       <c r="W93" s="4" t="s">
-        <v>2090</v>
+        <v>2135</v>
       </c>
       <c r="X93" s="4" t="s">
         <v>48</v>
@@ -16438,7 +16712,7 @@
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>31</v>
@@ -16462,49 +16736,49 @@
         <v>8888</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>2091</v>
+        <v>2404</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>2092</v>
+        <v>2405</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>2093</v>
+        <v>2406</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>2094</v>
+        <v>2407</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>2095</v>
+        <v>2408</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>2057</v>
+        <v>2026</v>
       </c>
       <c r="O94" s="4" t="s">
-        <v>2096</v>
+        <v>2409</v>
       </c>
       <c r="P94" s="4" t="s">
-        <v>2097</v>
+        <v>2410</v>
       </c>
       <c r="Q94" s="4" t="s">
-        <v>2098</v>
+        <v>2411</v>
       </c>
       <c r="R94" s="4" t="s">
-        <v>2099</v>
+        <v>2412</v>
       </c>
       <c r="S94" s="4" t="s">
-        <v>2100</v>
+        <v>2413</v>
       </c>
       <c r="T94" s="4" t="s">
-        <v>2095</v>
+        <v>2408</v>
       </c>
       <c r="U94" s="4" t="s">
-        <v>2101</v>
+        <v>2414</v>
       </c>
       <c r="V94" s="4" t="s">
-        <v>2102</v>
+        <v>2415</v>
       </c>
       <c r="W94" s="4" t="s">
-        <v>2103</v>
+        <v>2416</v>
       </c>
       <c r="X94" s="4" t="s">
         <v>48</v>
@@ -16513,7 +16787,7 @@
         <v>49</v>
       </c>
       <c r="Z94" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AA94" s="4" t="s">
         <v>50</v>
@@ -16531,7 +16805,7 @@
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>31</v>
@@ -16555,49 +16829,49 @@
         <v>8888</v>
       </c>
       <c r="I95" s="4" t="s">
+        <v>2417</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>2418</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>2419</v>
+      </c>
+      <c r="L95" s="4" t="s">
+        <v>2420</v>
+      </c>
+      <c r="M95" s="4" t="s">
+        <v>2421</v>
+      </c>
+      <c r="N95" s="4" t="s">
         <v>2104</v>
       </c>
-      <c r="J95" s="4" t="s">
-        <v>2105</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>2106</v>
-      </c>
-      <c r="L95" s="4" t="s">
-        <v>2094</v>
-      </c>
-      <c r="M95" s="4" t="s">
-        <v>2107</v>
-      </c>
-      <c r="N95" s="4" t="s">
-        <v>2108</v>
-      </c>
       <c r="O95" s="4" t="s">
-        <v>2109</v>
+        <v>2422</v>
       </c>
       <c r="P95" s="4" t="s">
-        <v>2110</v>
+        <v>2423</v>
       </c>
       <c r="Q95" s="4" t="s">
-        <v>2111</v>
+        <v>2424</v>
       </c>
       <c r="R95" s="4" t="s">
-        <v>2112</v>
+        <v>2425</v>
       </c>
       <c r="S95" s="4" t="s">
-        <v>2113</v>
+        <v>2426</v>
       </c>
       <c r="T95" s="4" t="s">
-        <v>2107</v>
+        <v>2421</v>
       </c>
       <c r="U95" s="4" t="s">
-        <v>2114</v>
+        <v>2427</v>
       </c>
       <c r="V95" s="4" t="s">
-        <v>1992</v>
+        <v>2428</v>
       </c>
       <c r="W95" s="4" t="s">
-        <v>2115</v>
+        <v>2429</v>
       </c>
       <c r="X95" s="4" t="s">
         <v>48</v>
@@ -16606,7 +16880,7 @@
         <v>49</v>
       </c>
       <c r="Z95" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AA95" s="4" t="s">
         <v>50</v>
@@ -16624,7 +16898,7 @@
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>31</v>
@@ -16648,49 +16922,49 @@
         <v>8888</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>2116</v>
+        <v>2430</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>2117</v>
+        <v>2431</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>2118</v>
+        <v>2432</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>2119</v>
+        <v>2433</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>2120</v>
+        <v>2434</v>
       </c>
       <c r="N96" s="4" t="s">
         <v>1188</v>
       </c>
       <c r="O96" s="4" t="s">
-        <v>2121</v>
+        <v>2435</v>
       </c>
       <c r="P96" s="4" t="s">
-        <v>821</v>
+        <v>2436</v>
       </c>
       <c r="Q96" s="4" t="s">
-        <v>2122</v>
+        <v>2437</v>
       </c>
       <c r="R96" s="4" t="s">
-        <v>2123</v>
+        <v>2438</v>
       </c>
       <c r="S96" s="4" t="s">
-        <v>2124</v>
+        <v>2439</v>
       </c>
       <c r="T96" s="4" t="s">
-        <v>2120</v>
+        <v>2434</v>
       </c>
       <c r="U96" s="4" t="s">
-        <v>2125</v>
+        <v>2440</v>
       </c>
       <c r="V96" s="4" t="s">
-        <v>1966</v>
+        <v>2336</v>
       </c>
       <c r="W96" s="4" t="s">
-        <v>2126</v>
+        <v>2441</v>
       </c>
       <c r="X96" s="4" t="s">
         <v>48</v>
@@ -16699,7 +16973,7 @@
         <v>49</v>
       </c>
       <c r="Z96" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AA96" s="4" t="s">
         <v>50</v>
@@ -16717,7 +16991,7 @@
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>31</v>
@@ -16741,49 +17015,49 @@
         <v>8888</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>2127</v>
+        <v>2442</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>2128</v>
+        <v>2443</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>2129</v>
+        <v>2327</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>2130</v>
+        <v>2444</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>2131</v>
+        <v>2445</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>2057</v>
+        <v>1139</v>
       </c>
       <c r="O97" s="4" t="s">
-        <v>2132</v>
+        <v>2446</v>
       </c>
       <c r="P97" s="4" t="s">
-        <v>2133</v>
+        <v>2447</v>
       </c>
       <c r="Q97" s="4" t="s">
-        <v>2134</v>
+        <v>2448</v>
       </c>
       <c r="R97" s="4" t="s">
-        <v>2135</v>
+        <v>2449</v>
       </c>
       <c r="S97" s="4" t="s">
-        <v>2136</v>
+        <v>2450</v>
       </c>
       <c r="T97" s="4" t="s">
-        <v>2131</v>
+        <v>2445</v>
       </c>
       <c r="U97" s="4" t="s">
-        <v>2137</v>
+        <v>2451</v>
       </c>
       <c r="V97" s="4" t="s">
-        <v>2138</v>
+        <v>2336</v>
       </c>
       <c r="W97" s="4" t="s">
-        <v>2139</v>
+        <v>2452</v>
       </c>
       <c r="X97" s="4" t="s">
         <v>48</v>
@@ -16792,7 +17066,7 @@
         <v>49</v>
       </c>
       <c r="Z97" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AA97" s="4" t="s">
         <v>50</v>
@@ -16810,7 +17084,7 @@
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>31</v>
@@ -16834,49 +17108,49 @@
         <v>8888</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>2305</v>
+        <v>2453</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>2306</v>
+        <v>2454</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>2307</v>
+        <v>2455</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>2308</v>
+        <v>2456</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>2309</v>
+        <v>2457</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>2026</v>
+        <v>2317</v>
       </c>
       <c r="O98" s="4" t="s">
-        <v>2310</v>
+        <v>2458</v>
       </c>
       <c r="P98" s="4" t="s">
-        <v>2311</v>
+        <v>2459</v>
       </c>
       <c r="Q98" s="4" t="s">
-        <v>2312</v>
+        <v>2460</v>
       </c>
       <c r="R98" s="4" t="s">
-        <v>2313</v>
+        <v>2461</v>
       </c>
       <c r="S98" s="4" t="s">
-        <v>1670</v>
+        <v>2462</v>
       </c>
       <c r="T98" s="4" t="s">
-        <v>2309</v>
+        <v>2457</v>
       </c>
       <c r="U98" s="4" t="s">
-        <v>2314</v>
+        <v>2463</v>
       </c>
       <c r="V98" s="4" t="s">
-        <v>2164</v>
+        <v>2258</v>
       </c>
       <c r="W98" s="4" t="s">
-        <v>2315</v>
+        <v>2464</v>
       </c>
       <c r="X98" s="4" t="s">
         <v>48</v>
@@ -16885,9 +17159,9 @@
         <v>49</v>
       </c>
       <c r="Z98" s="4">
-        <v>150</v>
-      </c>
-      <c r="AA98" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA98" s="4" t="s">
         <v>50</v>
       </c>
       <c r="AB98" s="4" t="s">
@@ -16903,7 +17177,7 @@
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>31</v>
@@ -16927,49 +17201,49 @@
         <v>8888</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>2316</v>
+        <v>2465</v>
       </c>
       <c r="J99" s="4" t="s">
+        <v>2466</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>2467</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>2468</v>
+      </c>
+      <c r="M99" s="4" t="s">
+        <v>2469</v>
+      </c>
+      <c r="N99" s="4" t="s">
         <v>2317</v>
       </c>
-      <c r="K99" s="4" t="s">
-        <v>2318</v>
-      </c>
-      <c r="L99" s="4" t="s">
-        <v>2319</v>
-      </c>
-      <c r="M99" s="4" t="s">
-        <v>2320</v>
-      </c>
-      <c r="N99" s="4" t="s">
-        <v>2321</v>
-      </c>
       <c r="O99" s="4" t="s">
-        <v>2322</v>
+        <v>2470</v>
       </c>
       <c r="P99" s="4" t="s">
-        <v>2323</v>
+        <v>2471</v>
       </c>
       <c r="Q99" s="4" t="s">
-        <v>2324</v>
+        <v>2472</v>
       </c>
       <c r="R99" s="4" t="s">
-        <v>2325</v>
+        <v>2473</v>
       </c>
       <c r="S99" s="4" t="s">
-        <v>2326</v>
+        <v>2474</v>
       </c>
       <c r="T99" s="4" t="s">
-        <v>2320</v>
+        <v>2469</v>
       </c>
       <c r="U99" s="4" t="s">
-        <v>2327</v>
+        <v>2475</v>
       </c>
       <c r="V99" s="4" t="s">
-        <v>2234</v>
+        <v>2476</v>
       </c>
       <c r="W99" s="4" t="s">
-        <v>2328</v>
+        <v>2477</v>
       </c>
       <c r="X99" s="4" t="s">
         <v>48</v>
@@ -16978,9 +17252,9 @@
         <v>49</v>
       </c>
       <c r="Z99" s="4">
-        <v>150</v>
-      </c>
-      <c r="AA99" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA99" s="4" t="s">
         <v>50</v>
       </c>
       <c r="AB99" s="4" t="s">
@@ -16996,7 +17270,7 @@
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>31</v>
@@ -17020,49 +17294,49 @@
         <v>8888</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>2329</v>
+        <v>2478</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>2330</v>
+        <v>2479</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>2331</v>
+        <v>2480</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>2332</v>
+        <v>2481</v>
       </c>
       <c r="M100" s="4" t="s">
-        <v>2333</v>
+        <v>2482</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>1139</v>
+        <v>2026</v>
       </c>
       <c r="O100" s="4" t="s">
-        <v>2334</v>
+        <v>2483</v>
       </c>
       <c r="P100" s="4" t="s">
-        <v>2335</v>
+        <v>2484</v>
       </c>
       <c r="Q100" s="4" t="s">
-        <v>2336</v>
+        <v>2485</v>
       </c>
       <c r="R100" s="4" t="s">
-        <v>2337</v>
+        <v>2486</v>
       </c>
       <c r="S100" s="4" t="s">
-        <v>2338</v>
+        <v>2487</v>
       </c>
       <c r="T100" s="4" t="s">
-        <v>2333</v>
+        <v>2482</v>
       </c>
       <c r="U100" s="4" t="s">
-        <v>2339</v>
+        <v>2270</v>
       </c>
       <c r="V100" s="4" t="s">
-        <v>2340</v>
+        <v>2488</v>
       </c>
       <c r="W100" s="4" t="s">
-        <v>2341</v>
+        <v>2489</v>
       </c>
       <c r="X100" s="4" t="s">
         <v>48</v>
@@ -17071,9 +17345,9 @@
         <v>49</v>
       </c>
       <c r="Z100" s="4">
-        <v>150</v>
-      </c>
-      <c r="AA100" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA100" s="4" t="s">
         <v>50</v>
       </c>
       <c r="AB100" s="4" t="s">
@@ -17089,7 +17363,7 @@
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>31</v>
@@ -17113,49 +17387,49 @@
         <v>8888</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>2342</v>
+        <v>2490</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>2343</v>
+        <v>2491</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>2344</v>
+        <v>2492</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>2345</v>
+        <v>2493</v>
       </c>
       <c r="M101" s="4" t="s">
-        <v>2346</v>
+        <v>2494</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>1139</v>
+        <v>2495</v>
       </c>
       <c r="O101" s="4" t="s">
-        <v>2347</v>
+        <v>2496</v>
       </c>
       <c r="P101" s="4" t="s">
-        <v>2348</v>
+        <v>2497</v>
       </c>
       <c r="Q101" s="4" t="s">
-        <v>2349</v>
+        <v>2498</v>
       </c>
       <c r="R101" s="4" t="s">
-        <v>2350</v>
+        <v>2499</v>
       </c>
       <c r="S101" s="4" t="s">
-        <v>2351</v>
+        <v>1760</v>
       </c>
       <c r="T101" s="4" t="s">
-        <v>2346</v>
+        <v>2494</v>
       </c>
       <c r="U101" s="4" t="s">
-        <v>2352</v>
+        <v>2500</v>
       </c>
       <c r="V101" s="4" t="s">
-        <v>2077</v>
+        <v>2033</v>
       </c>
       <c r="W101" s="4" t="s">
-        <v>2353</v>
+        <v>2501</v>
       </c>
       <c r="X101" s="4" t="s">
         <v>48</v>
@@ -17164,9 +17438,9 @@
         <v>49</v>
       </c>
       <c r="Z101" s="4">
-        <v>150</v>
-      </c>
-      <c r="AA101" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA101" s="4" t="s">
         <v>50</v>
       </c>
       <c r="AB101" s="4" t="s">
@@ -17182,7 +17456,7 @@
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>31</v>
@@ -17206,49 +17480,49 @@
         <v>8888</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>2354</v>
+        <v>2301</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>2355</v>
+        <v>2302</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>2356</v>
+        <v>2303</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>2357</v>
+        <v>2304</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>2358</v>
+        <v>2305</v>
       </c>
       <c r="N102" s="4" t="s">
-        <v>2359</v>
+        <v>2026</v>
       </c>
       <c r="O102" s="4" t="s">
-        <v>2360</v>
+        <v>2306</v>
       </c>
       <c r="P102" s="4" t="s">
-        <v>2361</v>
+        <v>2307</v>
       </c>
       <c r="Q102" s="4" t="s">
-        <v>2362</v>
+        <v>2308</v>
       </c>
       <c r="R102" s="4" t="s">
-        <v>2363</v>
+        <v>2309</v>
       </c>
       <c r="S102" s="4" t="s">
-        <v>2364</v>
+        <v>1670</v>
       </c>
       <c r="T102" s="4" t="s">
-        <v>2358</v>
+        <v>2305</v>
       </c>
       <c r="U102" s="4" t="s">
-        <v>2365</v>
+        <v>2310</v>
       </c>
       <c r="V102" s="4" t="s">
-        <v>2366</v>
+        <v>2160</v>
       </c>
       <c r="W102" s="4" t="s">
-        <v>2367</v>
+        <v>2311</v>
       </c>
       <c r="X102" s="4" t="s">
         <v>48</v>
@@ -17259,7 +17533,7 @@
       <c r="Z102" s="4">
         <v>150</v>
       </c>
-      <c r="AA102" t="s">
+      <c r="AA102" s="4" t="s">
         <v>50</v>
       </c>
       <c r="AB102" s="4" t="s">
@@ -17275,7 +17549,7 @@
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>31</v>
@@ -17299,49 +17573,49 @@
         <v>8888</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>2368</v>
+        <v>2312</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>2369</v>
+        <v>2313</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>2370</v>
+        <v>2314</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>2371</v>
+        <v>2315</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>2372</v>
+        <v>2316</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>2373</v>
+        <v>2317</v>
       </c>
       <c r="O103" s="4" t="s">
-        <v>2374</v>
+        <v>2318</v>
       </c>
       <c r="P103" s="4" t="s">
-        <v>2375</v>
+        <v>2319</v>
       </c>
       <c r="Q103" s="4" t="s">
-        <v>2376</v>
+        <v>2320</v>
       </c>
       <c r="R103" s="4" t="s">
-        <v>2377</v>
+        <v>2321</v>
       </c>
       <c r="S103" s="4" t="s">
-        <v>2378</v>
+        <v>2322</v>
       </c>
       <c r="T103" s="4" t="s">
-        <v>2372</v>
+        <v>2316</v>
       </c>
       <c r="U103" s="4" t="s">
-        <v>2379</v>
+        <v>2323</v>
       </c>
       <c r="V103" s="4" t="s">
-        <v>2380</v>
+        <v>2230</v>
       </c>
       <c r="W103" s="4" t="s">
-        <v>2381</v>
+        <v>2324</v>
       </c>
       <c r="X103" s="4" t="s">
         <v>48</v>
@@ -17352,7 +17626,7 @@
       <c r="Z103" s="4">
         <v>150</v>
       </c>
-      <c r="AA103" t="s">
+      <c r="AA103" s="4" t="s">
         <v>50</v>
       </c>
       <c r="AB103" s="4" t="s">
@@ -17368,7 +17642,7 @@
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>31</v>
@@ -17392,49 +17666,49 @@
         <v>8888</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>2382</v>
+        <v>2325</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>2383</v>
+        <v>2326</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>2384</v>
+        <v>2327</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>2385</v>
+        <v>2328</v>
       </c>
       <c r="M104" s="4" t="s">
-        <v>2386</v>
+        <v>2329</v>
       </c>
       <c r="N104" s="4" t="s">
-        <v>1985</v>
+        <v>1139</v>
       </c>
       <c r="O104" s="4" t="s">
-        <v>2387</v>
+        <v>2330</v>
       </c>
       <c r="P104" s="4" t="s">
-        <v>2388</v>
+        <v>2331</v>
       </c>
       <c r="Q104" s="4" t="s">
-        <v>2389</v>
+        <v>2332</v>
       </c>
       <c r="R104" s="4" t="s">
-        <v>2390</v>
+        <v>2333</v>
       </c>
       <c r="S104" s="4" t="s">
-        <v>2391</v>
+        <v>2334</v>
       </c>
       <c r="T104" s="4" t="s">
-        <v>2386</v>
+        <v>2329</v>
       </c>
       <c r="U104" s="4" t="s">
-        <v>2392</v>
+        <v>2335</v>
       </c>
       <c r="V104" s="4" t="s">
-        <v>2393</v>
+        <v>2336</v>
       </c>
       <c r="W104" s="4" t="s">
-        <v>2394</v>
+        <v>2337</v>
       </c>
       <c r="X104" s="4" t="s">
         <v>48</v>
@@ -17445,7 +17719,7 @@
       <c r="Z104" s="4">
         <v>150</v>
       </c>
-      <c r="AA104" t="s">
+      <c r="AA104" s="4" t="s">
         <v>50</v>
       </c>
       <c r="AB104" s="4" t="s">
@@ -17461,7 +17735,7 @@
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>31</v>
@@ -17485,49 +17759,49 @@
         <v>8888</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>2395</v>
+        <v>2338</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>2396</v>
+        <v>2339</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>2397</v>
+        <v>2340</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>2398</v>
+        <v>2341</v>
       </c>
       <c r="M105" s="4" t="s">
-        <v>2399</v>
+        <v>2342</v>
       </c>
       <c r="N105" s="4" t="s">
-        <v>2321</v>
+        <v>1139</v>
       </c>
       <c r="O105" s="4" t="s">
-        <v>2400</v>
+        <v>2343</v>
       </c>
       <c r="P105" s="4" t="s">
-        <v>2401</v>
+        <v>2344</v>
       </c>
       <c r="Q105" s="4" t="s">
-        <v>2402</v>
+        <v>2345</v>
       </c>
       <c r="R105" s="4" t="s">
-        <v>2403</v>
+        <v>2346</v>
       </c>
       <c r="S105" s="4" t="s">
-        <v>2404</v>
+        <v>2347</v>
       </c>
       <c r="T105" s="4" t="s">
-        <v>2399</v>
+        <v>2342</v>
       </c>
       <c r="U105" s="4" t="s">
-        <v>2405</v>
+        <v>2348</v>
       </c>
       <c r="V105" s="4" t="s">
-        <v>2406</v>
+        <v>2073</v>
       </c>
       <c r="W105" s="4" t="s">
-        <v>2407</v>
+        <v>2349</v>
       </c>
       <c r="X105" s="4" t="s">
         <v>48</v>
@@ -17538,7 +17812,7 @@
       <c r="Z105" s="4">
         <v>150</v>
       </c>
-      <c r="AA105" t="s">
+      <c r="AA105" s="4" t="s">
         <v>50</v>
       </c>
       <c r="AB105" s="4" t="s">
@@ -17553,33 +17827,85 @@
       <c r="AE105" s="4"/>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
-      <c r="M106" s="4"/>
-      <c r="N106" s="4"/>
-      <c r="O106" s="4"/>
-      <c r="P106" s="4"/>
-      <c r="Q106" s="4"/>
-      <c r="R106" s="4"/>
-      <c r="S106" s="4"/>
-      <c r="T106" s="4"/>
-      <c r="U106" s="4"/>
-      <c r="V106" s="4"/>
-      <c r="W106" s="4"/>
-      <c r="X106" s="4"/>
-      <c r="Y106" s="4"/>
-      <c r="Z106" s="4"/>
-      <c r="AA106" s="4" t="s">
+      <c r="A106" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D106" s="4">
+        <v>200</v>
+      </c>
+      <c r="E106" s="4">
+        <v>50</v>
+      </c>
+      <c r="F106" s="4">
+        <v>2</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H106" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>2350</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>2351</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>2352</v>
+      </c>
+      <c r="L106" s="4" t="s">
+        <v>2353</v>
+      </c>
+      <c r="M106" s="4" t="s">
+        <v>2354</v>
+      </c>
+      <c r="N106" s="4" t="s">
+        <v>2355</v>
+      </c>
+      <c r="O106" s="4" t="s">
+        <v>2356</v>
+      </c>
+      <c r="P106" s="4" t="s">
+        <v>2357</v>
+      </c>
+      <c r="Q106" s="4" t="s">
+        <v>2358</v>
+      </c>
+      <c r="R106" s="4" t="s">
+        <v>2359</v>
+      </c>
+      <c r="S106" s="4" t="s">
+        <v>2360</v>
+      </c>
+      <c r="T106" s="4" t="s">
+        <v>2354</v>
+      </c>
+      <c r="U106" s="4" t="s">
+        <v>2361</v>
+      </c>
+      <c r="V106" s="4" t="s">
+        <v>2362</v>
+      </c>
+      <c r="W106" s="4" t="s">
+        <v>2363</v>
+      </c>
+      <c r="X106" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y106" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z106" s="4">
+        <v>150</v>
+      </c>
+      <c r="AA106" t="s">
         <v>50</v>
       </c>
       <c r="AB106" s="4" t="s">
@@ -17594,33 +17920,85 @@
       <c r="AE106" s="4"/>
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
-      <c r="J107" s="4"/>
-      <c r="K107" s="4"/>
-      <c r="L107" s="4"/>
-      <c r="M107" s="4"/>
-      <c r="N107" s="4"/>
-      <c r="O107" s="4"/>
-      <c r="P107" s="4"/>
-      <c r="Q107" s="4"/>
-      <c r="R107" s="4"/>
-      <c r="S107" s="4"/>
-      <c r="T107" s="4"/>
-      <c r="U107" s="4"/>
-      <c r="V107" s="4"/>
-      <c r="W107" s="4"/>
-      <c r="X107" s="4"/>
-      <c r="Y107" s="4"/>
-      <c r="Z107" s="4"/>
-      <c r="AA107" s="4" t="s">
+      <c r="A107" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D107" s="4">
+        <v>200</v>
+      </c>
+      <c r="E107" s="4">
+        <v>50</v>
+      </c>
+      <c r="F107" s="4">
+        <v>2</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H107" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>2364</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>2365</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>2366</v>
+      </c>
+      <c r="L107" s="4" t="s">
+        <v>2367</v>
+      </c>
+      <c r="M107" s="4" t="s">
+        <v>2368</v>
+      </c>
+      <c r="N107" s="4" t="s">
+        <v>2369</v>
+      </c>
+      <c r="O107" s="4" t="s">
+        <v>2370</v>
+      </c>
+      <c r="P107" s="4" t="s">
+        <v>2371</v>
+      </c>
+      <c r="Q107" s="4" t="s">
+        <v>2372</v>
+      </c>
+      <c r="R107" s="4" t="s">
+        <v>2373</v>
+      </c>
+      <c r="S107" s="4" t="s">
+        <v>2374</v>
+      </c>
+      <c r="T107" s="4" t="s">
+        <v>2368</v>
+      </c>
+      <c r="U107" s="4" t="s">
+        <v>2375</v>
+      </c>
+      <c r="V107" s="4" t="s">
+        <v>2376</v>
+      </c>
+      <c r="W107" s="4" t="s">
+        <v>2377</v>
+      </c>
+      <c r="X107" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y107" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z107" s="4">
+        <v>150</v>
+      </c>
+      <c r="AA107" t="s">
         <v>50</v>
       </c>
       <c r="AB107" s="4" t="s">
@@ -17635,33 +18013,85 @@
       <c r="AE107" s="4"/>
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
-      <c r="K108" s="4"/>
-      <c r="L108" s="4"/>
-      <c r="M108" s="4"/>
-      <c r="N108" s="4"/>
-      <c r="O108" s="4"/>
-      <c r="P108" s="4"/>
-      <c r="Q108" s="4"/>
-      <c r="R108" s="4"/>
-      <c r="S108" s="4"/>
-      <c r="T108" s="4"/>
-      <c r="U108" s="4"/>
-      <c r="V108" s="4"/>
-      <c r="W108" s="4"/>
-      <c r="X108" s="4"/>
-      <c r="Y108" s="4"/>
-      <c r="Z108" s="4"/>
-      <c r="AA108" s="4" t="s">
+      <c r="A108" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D108" s="4">
+        <v>200</v>
+      </c>
+      <c r="E108" s="4">
+        <v>50</v>
+      </c>
+      <c r="F108" s="4">
+        <v>2</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H108" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>2378</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>2379</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>2380</v>
+      </c>
+      <c r="L108" s="4" t="s">
+        <v>2381</v>
+      </c>
+      <c r="M108" s="4" t="s">
+        <v>2382</v>
+      </c>
+      <c r="N108" s="4" t="s">
+        <v>1985</v>
+      </c>
+      <c r="O108" s="4" t="s">
+        <v>2383</v>
+      </c>
+      <c r="P108" s="4" t="s">
+        <v>2384</v>
+      </c>
+      <c r="Q108" s="4" t="s">
+        <v>2385</v>
+      </c>
+      <c r="R108" s="4" t="s">
+        <v>2386</v>
+      </c>
+      <c r="S108" s="4" t="s">
+        <v>2387</v>
+      </c>
+      <c r="T108" s="4" t="s">
+        <v>2382</v>
+      </c>
+      <c r="U108" s="4" t="s">
+        <v>2388</v>
+      </c>
+      <c r="V108" s="4" t="s">
+        <v>2389</v>
+      </c>
+      <c r="W108" s="4" t="s">
+        <v>2390</v>
+      </c>
+      <c r="X108" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y108" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z108" s="4">
+        <v>150</v>
+      </c>
+      <c r="AA108" t="s">
         <v>50</v>
       </c>
       <c r="AB108" s="4" t="s">
@@ -17676,33 +18106,85 @@
       <c r="AE108" s="4"/>
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
-      <c r="J109" s="4"/>
-      <c r="K109" s="4"/>
-      <c r="L109" s="4"/>
-      <c r="M109" s="4"/>
-      <c r="N109" s="4"/>
-      <c r="O109" s="4"/>
-      <c r="P109" s="4"/>
-      <c r="Q109" s="4"/>
-      <c r="R109" s="4"/>
-      <c r="S109" s="4"/>
-      <c r="T109" s="4"/>
-      <c r="U109" s="4"/>
-      <c r="V109" s="4"/>
-      <c r="W109" s="4"/>
-      <c r="X109" s="4"/>
-      <c r="Y109" s="4"/>
-      <c r="Z109" s="4"/>
-      <c r="AA109" s="4" t="s">
+      <c r="A109" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D109" s="4">
+        <v>200</v>
+      </c>
+      <c r="E109" s="4">
+        <v>50</v>
+      </c>
+      <c r="F109" s="4">
+        <v>2</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H109" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>2391</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>2392</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>2393</v>
+      </c>
+      <c r="L109" s="4" t="s">
+        <v>2394</v>
+      </c>
+      <c r="M109" s="4" t="s">
+        <v>2395</v>
+      </c>
+      <c r="N109" s="4" t="s">
+        <v>2317</v>
+      </c>
+      <c r="O109" s="4" t="s">
+        <v>2396</v>
+      </c>
+      <c r="P109" s="4" t="s">
+        <v>2397</v>
+      </c>
+      <c r="Q109" s="4" t="s">
+        <v>2398</v>
+      </c>
+      <c r="R109" s="4" t="s">
+        <v>2399</v>
+      </c>
+      <c r="S109" s="4" t="s">
+        <v>2400</v>
+      </c>
+      <c r="T109" s="4" t="s">
+        <v>2395</v>
+      </c>
+      <c r="U109" s="4" t="s">
+        <v>2401</v>
+      </c>
+      <c r="V109" s="4" t="s">
+        <v>2402</v>
+      </c>
+      <c r="W109" s="4" t="s">
+        <v>2403</v>
+      </c>
+      <c r="X109" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y109" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z109" s="4">
+        <v>150</v>
+      </c>
+      <c r="AA109" t="s">
         <v>50</v>
       </c>
       <c r="AB109" s="4" t="s">
@@ -17743,7 +18225,7 @@
       <c r="X110" s="4"/>
       <c r="Y110" s="4"/>
       <c r="Z110" s="4"/>
-      <c r="AA110" s="4" t="s">
+      <c r="AA110" t="s">
         <v>50</v>
       </c>
       <c r="AB110" s="4" t="s">
@@ -17784,7 +18266,7 @@
       <c r="X111" s="4"/>
       <c r="Y111" s="4"/>
       <c r="Z111" s="4"/>
-      <c r="AA111" s="4" t="s">
+      <c r="AA111" t="s">
         <v>50</v>
       </c>
       <c r="AB111" s="4" t="s">
@@ -17825,7 +18307,7 @@
       <c r="X112" s="4"/>
       <c r="Y112" s="4"/>
       <c r="Z112" s="4"/>
-      <c r="AA112" s="4" t="s">
+      <c r="AA112" t="s">
         <v>50</v>
       </c>
       <c r="AB112" s="4" t="s">
@@ -17866,7 +18348,7 @@
       <c r="X113" s="4"/>
       <c r="Y113" s="4"/>
       <c r="Z113" s="4"/>
-      <c r="AA113" s="4" t="s">
+      <c r="AA113" t="s">
         <v>50</v>
       </c>
       <c r="AB113" s="4" t="s">
@@ -18080,10 +18562,6 @@
       <c r="AC118" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AD118" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE118" s="4"/>
     </row>
     <row r="119" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A119" s="4"/>
@@ -18121,10 +18599,6 @@
       <c r="AC119" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AD119" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE119" s="4"/>
     </row>
     <row r="120" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A120" s="4"/>
@@ -18162,10 +18636,6 @@
       <c r="AC120" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AD120" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE120" s="4"/>
     </row>
     <row r="121" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A121" s="4"/>
@@ -18203,14 +18673,154 @@
       <c r="AC121" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AD121" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE121" s="4"/>
+    </row>
+    <row r="122" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4"/>
+      <c r="R122" s="4"/>
+      <c r="S122" s="4"/>
+      <c r="T122" s="4"/>
+      <c r="U122" s="4"/>
+      <c r="V122" s="4"/>
+      <c r="W122" s="4"/>
+      <c r="X122" s="4"/>
+      <c r="Y122" s="4"/>
+      <c r="Z122" s="4"/>
+      <c r="AA122" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="4"/>
+      <c r="R123" s="4"/>
+      <c r="S123" s="4"/>
+      <c r="T123" s="4"/>
+      <c r="U123" s="4"/>
+      <c r="V123" s="4"/>
+      <c r="W123" s="4"/>
+      <c r="X123" s="4"/>
+      <c r="Y123" s="4"/>
+      <c r="Z123" s="4"/>
+      <c r="AA123" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
+      <c r="Q124" s="4"/>
+      <c r="R124" s="4"/>
+      <c r="S124" s="4"/>
+      <c r="T124" s="4"/>
+      <c r="U124" s="4"/>
+      <c r="V124" s="4"/>
+      <c r="W124" s="4"/>
+      <c r="X124" s="4"/>
+      <c r="Y124" s="4"/>
+      <c r="Z124" s="4"/>
+      <c r="AA124" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
+      <c r="O125" s="4"/>
+      <c r="P125" s="4"/>
+      <c r="Q125" s="4"/>
+      <c r="R125" s="4"/>
+      <c r="S125" s="4"/>
+      <c r="T125" s="4"/>
+      <c r="U125" s="4"/>
+      <c r="V125" s="4"/>
+      <c r="W125" s="4"/>
+      <c r="X125" s="4"/>
+      <c r="Y125" s="4"/>
+      <c r="Z125" s="4"/>
+      <c r="AA125" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA126" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA127" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA128" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA129" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE121">
-    <sortCondition ref="E2:E121"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE117">
+    <sortCondition ref="E2:E117"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18219,11 +18829,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1580F763-1068-4458-98B2-DF0FB3B79945}">
-  <dimension ref="A1:AC85"/>
+  <dimension ref="A1:Z85"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z85" sqref="Z85"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z69" sqref="Z69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -18249,10 +18859,9 @@
     <col min="24" max="24" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8.9140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.4140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="2.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18331,11 +18940,8 @@
       <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -18414,11 +19020,8 @@
       <c r="Z2" s="4">
         <v>0</v>
       </c>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
@@ -18497,11 +19100,8 @@
       <c r="Z3" s="4">
         <v>0</v>
       </c>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>67</v>
       </c>
@@ -18580,11 +19180,8 @@
       <c r="Z4" s="4">
         <v>0</v>
       </c>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>67</v>
       </c>
@@ -18663,11 +19260,8 @@
       <c r="Z5" s="4">
         <v>0</v>
       </c>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
@@ -18746,11 +19340,8 @@
       <c r="Z6" s="4">
         <v>20</v>
       </c>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -18829,11 +19420,8 @@
       <c r="Z7" s="4">
         <v>20</v>
       </c>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>67</v>
       </c>
@@ -18912,11 +19500,8 @@
       <c r="Z8" s="4">
         <v>20</v>
       </c>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>67</v>
       </c>
@@ -18995,11 +19580,8 @@
       <c r="Z9" s="4">
         <v>20</v>
       </c>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -19078,11 +19660,8 @@
       <c r="Z10" s="4">
         <v>20</v>
       </c>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
@@ -19161,11 +19740,8 @@
       <c r="Z11" s="4">
         <v>20</v>
       </c>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>67</v>
       </c>
@@ -19244,11 +19820,8 @@
       <c r="Z12" s="4">
         <v>20</v>
       </c>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>67</v>
       </c>
@@ -19327,11 +19900,8 @@
       <c r="Z13" s="4">
         <v>20</v>
       </c>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
@@ -19410,11 +19980,8 @@
       <c r="Z14" s="4">
         <v>50</v>
       </c>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
@@ -19493,11 +20060,8 @@
       <c r="Z15" s="4">
         <v>50</v>
       </c>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>67</v>
       </c>
@@ -19576,11 +20140,8 @@
       <c r="Z16" s="4">
         <v>50</v>
       </c>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>67</v>
       </c>
@@ -19659,11 +20220,8 @@
       <c r="Z17" s="4">
         <v>50</v>
       </c>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
@@ -19742,11 +20300,8 @@
       <c r="Z18" s="4">
         <v>50</v>
       </c>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -19825,11 +20380,8 @@
       <c r="Z19" s="4">
         <v>50</v>
       </c>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>67</v>
       </c>
@@ -19908,11 +20460,8 @@
       <c r="Z20" s="4">
         <v>50</v>
       </c>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>67</v>
       </c>
@@ -19991,11 +20540,8 @@
       <c r="Z21" s="4">
         <v>50</v>
       </c>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
@@ -20074,11 +20620,8 @@
       <c r="Z22" s="4">
         <v>100</v>
       </c>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
@@ -20157,11 +20700,8 @@
       <c r="Z23" s="4">
         <v>100</v>
       </c>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>67</v>
       </c>
@@ -20240,11 +20780,8 @@
       <c r="Z24" s="4">
         <v>100</v>
       </c>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>67</v>
       </c>
@@ -20323,11 +20860,8 @@
       <c r="Z25" s="4">
         <v>100</v>
       </c>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
@@ -20406,11 +20940,8 @@
       <c r="Z26" s="4">
         <v>100</v>
       </c>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
@@ -20489,11 +21020,8 @@
       <c r="Z27" s="4">
         <v>100</v>
       </c>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>67</v>
       </c>
@@ -20572,11 +21100,8 @@
       <c r="Z28" s="4">
         <v>100</v>
       </c>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>67</v>
       </c>
@@ -20655,11 +21180,8 @@
       <c r="Z29" s="4">
         <v>100</v>
       </c>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
@@ -20738,11 +21260,8 @@
       <c r="Z30" s="4">
         <v>150</v>
       </c>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
@@ -20821,11 +21340,8 @@
       <c r="Z31" s="4">
         <v>150</v>
       </c>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>67</v>
       </c>
@@ -20904,11 +21420,8 @@
       <c r="Z32" s="4">
         <v>150</v>
       </c>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>67</v>
       </c>
@@ -20987,11 +21500,8 @@
       <c r="Z33" s="4">
         <v>150</v>
       </c>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>30</v>
       </c>
@@ -21070,11 +21580,8 @@
       <c r="Z34" s="4">
         <v>150</v>
       </c>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>30</v>
       </c>
@@ -21153,11 +21660,8 @@
       <c r="Z35" s="4">
         <v>150</v>
       </c>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>67</v>
       </c>
@@ -21236,11 +21740,8 @@
       <c r="Z36" s="4">
         <v>150</v>
       </c>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>67</v>
       </c>
@@ -21319,11 +21820,8 @@
       <c r="Z37" s="4">
         <v>150</v>
       </c>
-      <c r="AA37" s="4"/>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="4"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>30</v>
       </c>
@@ -21402,11 +21900,8 @@
       <c r="Z38" s="4">
         <v>0</v>
       </c>
-      <c r="AA38" s="4"/>
-      <c r="AB38" s="4"/>
-      <c r="AC38" s="4"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>30</v>
       </c>
@@ -21485,11 +21980,8 @@
       <c r="Z39" s="4">
         <v>0</v>
       </c>
-      <c r="AA39" s="4"/>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="4"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>67</v>
       </c>
@@ -21568,11 +22060,8 @@
       <c r="Z40" s="4">
         <v>0</v>
       </c>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
-      <c r="AC40" s="4"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>67</v>
       </c>
@@ -21651,11 +22140,8 @@
       <c r="Z41" s="4">
         <v>0</v>
       </c>
-      <c r="AA41" s="4"/>
-      <c r="AB41" s="4"/>
-      <c r="AC41" s="4"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>30</v>
       </c>
@@ -21734,11 +22220,8 @@
       <c r="Z42" s="4">
         <v>20</v>
       </c>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>30</v>
       </c>
@@ -21817,11 +22300,8 @@
       <c r="Z43" s="4">
         <v>20</v>
       </c>
-      <c r="AA43" s="4"/>
-      <c r="AB43" s="4"/>
-      <c r="AC43" s="4"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>67</v>
       </c>
@@ -21900,11 +22380,8 @@
       <c r="Z44" s="4">
         <v>20</v>
       </c>
-      <c r="AA44" s="4"/>
-      <c r="AB44" s="4"/>
-      <c r="AC44" s="4"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>67</v>
       </c>
@@ -21983,11 +22460,8 @@
       <c r="Z45" s="4">
         <v>20</v>
       </c>
-      <c r="AA45" s="4"/>
-      <c r="AB45" s="4"/>
-      <c r="AC45" s="4"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>30</v>
       </c>
@@ -22066,11 +22540,8 @@
       <c r="Z46" s="4">
         <v>20</v>
       </c>
-      <c r="AA46" s="4"/>
-      <c r="AB46" s="4"/>
-      <c r="AC46" s="4"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>30</v>
       </c>
@@ -22149,11 +22620,8 @@
       <c r="Z47" s="4">
         <v>20</v>
       </c>
-      <c r="AA47" s="4"/>
-      <c r="AB47" s="4"/>
-      <c r="AC47" s="4"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>67</v>
       </c>
@@ -22232,11 +22700,8 @@
       <c r="Z48" s="4">
         <v>20</v>
       </c>
-      <c r="AA48" s="4"/>
-      <c r="AB48" s="4"/>
-      <c r="AC48" s="4"/>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>67</v>
       </c>
@@ -22315,11 +22780,8 @@
       <c r="Z49" s="4">
         <v>20</v>
       </c>
-      <c r="AA49" s="4"/>
-      <c r="AB49" s="4"/>
-      <c r="AC49" s="4"/>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>30</v>
       </c>
@@ -22398,11 +22860,8 @@
       <c r="Z50" s="4">
         <v>50</v>
       </c>
-      <c r="AA50" s="4"/>
-      <c r="AB50" s="4"/>
-      <c r="AC50" s="4"/>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>30</v>
       </c>
@@ -22481,11 +22940,8 @@
       <c r="Z51" s="4">
         <v>50</v>
       </c>
-      <c r="AA51" s="4"/>
-      <c r="AB51" s="4"/>
-      <c r="AC51" s="4"/>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>67</v>
       </c>
@@ -22564,11 +23020,8 @@
       <c r="Z52" s="4">
         <v>50</v>
       </c>
-      <c r="AA52" s="4"/>
-      <c r="AB52" s="4"/>
-      <c r="AC52" s="4"/>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>67</v>
       </c>
@@ -22647,11 +23100,8 @@
       <c r="Z53" s="4">
         <v>50</v>
       </c>
-      <c r="AA53" s="4"/>
-      <c r="AB53" s="4"/>
-      <c r="AC53" s="4"/>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>30</v>
       </c>
@@ -22730,11 +23180,8 @@
       <c r="Z54" s="4">
         <v>50</v>
       </c>
-      <c r="AA54" s="4"/>
-      <c r="AB54" s="4"/>
-      <c r="AC54" s="4"/>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>30</v>
       </c>
@@ -22813,11 +23260,8 @@
       <c r="Z55" s="4">
         <v>50</v>
       </c>
-      <c r="AA55" s="4"/>
-      <c r="AB55" s="4"/>
-      <c r="AC55" s="4"/>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>67</v>
       </c>
@@ -22896,11 +23340,8 @@
       <c r="Z56" s="4">
         <v>50</v>
       </c>
-      <c r="AA56" s="4"/>
-      <c r="AB56" s="4"/>
-      <c r="AC56" s="4"/>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>67</v>
       </c>
@@ -22979,11 +23420,8 @@
       <c r="Z57" s="4">
         <v>50</v>
       </c>
-      <c r="AA57" s="4"/>
-      <c r="AB57" s="4"/>
-      <c r="AC57" s="4"/>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>30</v>
       </c>
@@ -23063,7 +23501,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>30</v>
       </c>
@@ -23143,7 +23581,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>67</v>
       </c>
@@ -23223,7 +23661,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>67</v>
       </c>
@@ -23303,7 +23741,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>30</v>
       </c>
@@ -23383,7 +23821,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>30</v>
       </c>
@@ -23463,7 +23901,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>67</v>
       </c>
@@ -24289,49 +24727,49 @@
         <v>8888</v>
       </c>
       <c r="I74" s="4" t="s">
+        <v>2246</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>2247</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>2248</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>2249</v>
+      </c>
+      <c r="M74" s="4" t="s">
         <v>2250</v>
       </c>
-      <c r="J74" s="4" t="s">
+      <c r="N74" s="4" t="s">
         <v>2251</v>
       </c>
-      <c r="K74" s="4" t="s">
+      <c r="O74" s="4" t="s">
         <v>2252</v>
       </c>
-      <c r="L74" s="4" t="s">
+      <c r="P74" s="4" t="s">
         <v>2253</v>
       </c>
-      <c r="M74" s="4" t="s">
+      <c r="Q74" s="4" t="s">
         <v>2254</v>
       </c>
-      <c r="N74" s="4" t="s">
+      <c r="R74" s="4" t="s">
         <v>2255</v>
       </c>
-      <c r="O74" s="4" t="s">
+      <c r="S74" s="4" t="s">
         <v>2256</v>
       </c>
-      <c r="P74" s="4" t="s">
+      <c r="T74" s="4" t="s">
+        <v>2250</v>
+      </c>
+      <c r="U74" s="4" t="s">
         <v>2257</v>
       </c>
-      <c r="Q74" s="4" t="s">
+      <c r="V74" s="4" t="s">
         <v>2258</v>
       </c>
-      <c r="R74" s="4" t="s">
+      <c r="W74" s="4" t="s">
         <v>2259</v>
-      </c>
-      <c r="S74" s="4" t="s">
-        <v>2260</v>
-      </c>
-      <c r="T74" s="4" t="s">
-        <v>2254</v>
-      </c>
-      <c r="U74" s="4" t="s">
-        <v>2261</v>
-      </c>
-      <c r="V74" s="4" t="s">
-        <v>2262</v>
-      </c>
-      <c r="W74" s="4" t="s">
-        <v>2263</v>
       </c>
       <c r="X74" s="4" t="s">
         <v>48</v>
@@ -24369,49 +24807,49 @@
         <v>8888</v>
       </c>
       <c r="I75" s="4" t="s">
+        <v>2260</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>2261</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>2262</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>2263</v>
+      </c>
+      <c r="M75" s="4" t="s">
         <v>2264</v>
-      </c>
-      <c r="J75" s="4" t="s">
-        <v>2265</v>
-      </c>
-      <c r="K75" s="4" t="s">
-        <v>2266</v>
-      </c>
-      <c r="L75" s="4" t="s">
-        <v>2267</v>
-      </c>
-      <c r="M75" s="4" t="s">
-        <v>2268</v>
       </c>
       <c r="N75" s="4" t="s">
         <v>110</v>
       </c>
       <c r="O75" s="4" t="s">
+        <v>2265</v>
+      </c>
+      <c r="P75" s="4" t="s">
+        <v>2266</v>
+      </c>
+      <c r="Q75" s="4" t="s">
+        <v>2267</v>
+      </c>
+      <c r="R75" s="4" t="s">
+        <v>2268</v>
+      </c>
+      <c r="S75" s="4" t="s">
         <v>2269</v>
       </c>
-      <c r="P75" s="4" t="s">
+      <c r="T75" s="4" t="s">
+        <v>2264</v>
+      </c>
+      <c r="U75" s="4" t="s">
         <v>2270</v>
       </c>
-      <c r="Q75" s="4" t="s">
+      <c r="V75" s="4" t="s">
         <v>2271</v>
       </c>
-      <c r="R75" s="4" t="s">
+      <c r="W75" s="4" t="s">
         <v>2272</v>
-      </c>
-      <c r="S75" s="4" t="s">
-        <v>2273</v>
-      </c>
-      <c r="T75" s="4" t="s">
-        <v>2268</v>
-      </c>
-      <c r="U75" s="4" t="s">
-        <v>2274</v>
-      </c>
-      <c r="V75" s="4" t="s">
-        <v>2275</v>
-      </c>
-      <c r="W75" s="4" t="s">
-        <v>2276</v>
       </c>
       <c r="X75" s="4" t="s">
         <v>48</v>
@@ -24449,49 +24887,49 @@
         <v>8888</v>
       </c>
       <c r="I76" s="4" t="s">
+        <v>2273</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>2274</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>2275</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>2276</v>
+      </c>
+      <c r="M76" s="4" t="s">
         <v>2277</v>
       </c>
-      <c r="J76" s="4" t="s">
+      <c r="N76" s="4" t="s">
         <v>2278</v>
       </c>
-      <c r="K76" s="4" t="s">
+      <c r="O76" s="4" t="s">
         <v>2279</v>
       </c>
-      <c r="L76" s="4" t="s">
+      <c r="P76" s="4" t="s">
         <v>2280</v>
       </c>
-      <c r="M76" s="4" t="s">
+      <c r="Q76" s="4" t="s">
         <v>2281</v>
       </c>
-      <c r="N76" s="4" t="s">
+      <c r="R76" s="4" t="s">
         <v>2282</v>
       </c>
-      <c r="O76" s="4" t="s">
+      <c r="S76" s="4" t="s">
         <v>2283</v>
       </c>
-      <c r="P76" s="4" t="s">
+      <c r="T76" s="4" t="s">
+        <v>2277</v>
+      </c>
+      <c r="U76" s="4" t="s">
         <v>2284</v>
       </c>
-      <c r="Q76" s="4" t="s">
+      <c r="V76" s="4" t="s">
         <v>2285</v>
       </c>
-      <c r="R76" s="4" t="s">
+      <c r="W76" s="4" t="s">
         <v>2286</v>
-      </c>
-      <c r="S76" s="4" t="s">
-        <v>2287</v>
-      </c>
-      <c r="T76" s="4" t="s">
-        <v>2281</v>
-      </c>
-      <c r="U76" s="4" t="s">
-        <v>2288</v>
-      </c>
-      <c r="V76" s="4" t="s">
-        <v>2289</v>
-      </c>
-      <c r="W76" s="4" t="s">
-        <v>2290</v>
       </c>
       <c r="X76" s="4" t="s">
         <v>48</v>
@@ -24529,49 +24967,49 @@
         <v>8888</v>
       </c>
       <c r="I77" s="4" t="s">
+        <v>2287</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>2288</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>2289</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>2290</v>
+      </c>
+      <c r="M77" s="4" t="s">
         <v>2291</v>
       </c>
-      <c r="J77" s="4" t="s">
+      <c r="N77" s="4" t="s">
         <v>2292</v>
       </c>
-      <c r="K77" s="4" t="s">
+      <c r="O77" s="4" t="s">
         <v>2293</v>
       </c>
-      <c r="L77" s="4" t="s">
+      <c r="P77" s="4" t="s">
         <v>2294</v>
       </c>
-      <c r="M77" s="4" t="s">
+      <c r="Q77" s="4" t="s">
         <v>2295</v>
       </c>
-      <c r="N77" s="4" t="s">
+      <c r="R77" s="4" t="s">
         <v>2296</v>
       </c>
-      <c r="O77" s="4" t="s">
+      <c r="S77" s="4" t="s">
         <v>2297</v>
       </c>
-      <c r="P77" s="4" t="s">
+      <c r="T77" s="4" t="s">
+        <v>2291</v>
+      </c>
+      <c r="U77" s="4" t="s">
         <v>2298</v>
       </c>
-      <c r="Q77" s="4" t="s">
+      <c r="V77" s="4" t="s">
         <v>2299</v>
       </c>
-      <c r="R77" s="4" t="s">
+      <c r="W77" s="4" t="s">
         <v>2300</v>
-      </c>
-      <c r="S77" s="4" t="s">
-        <v>2301</v>
-      </c>
-      <c r="T77" s="4" t="s">
-        <v>2295</v>
-      </c>
-      <c r="U77" s="4" t="s">
-        <v>2302</v>
-      </c>
-      <c r="V77" s="4" t="s">
-        <v>2303</v>
-      </c>
-      <c r="W77" s="4" t="s">
-        <v>2304</v>
       </c>
       <c r="X77" s="4" t="s">
         <v>48</v>
@@ -24609,49 +25047,49 @@
         <v>8888</v>
       </c>
       <c r="I78" s="4" t="s">
+        <v>2136</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>2137</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>2138</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>2139</v>
+      </c>
+      <c r="M78" s="4" t="s">
         <v>2140</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>2141</v>
-      </c>
-      <c r="K78" s="4" t="s">
-        <v>2142</v>
-      </c>
-      <c r="L78" s="4" t="s">
-        <v>2143</v>
-      </c>
-      <c r="M78" s="4" t="s">
-        <v>2144</v>
       </c>
       <c r="N78" s="4" t="s">
         <v>110</v>
       </c>
       <c r="O78" s="4" t="s">
+        <v>2141</v>
+      </c>
+      <c r="P78" s="4" t="s">
+        <v>2142</v>
+      </c>
+      <c r="Q78" s="4" t="s">
+        <v>2143</v>
+      </c>
+      <c r="R78" s="4" t="s">
+        <v>2144</v>
+      </c>
+      <c r="S78" s="4" t="s">
         <v>2145</v>
       </c>
-      <c r="P78" s="4" t="s">
+      <c r="T78" s="4" t="s">
+        <v>2140</v>
+      </c>
+      <c r="U78" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="Q78" s="4" t="s">
+      <c r="V78" s="4" t="s">
         <v>2147</v>
       </c>
-      <c r="R78" s="4" t="s">
+      <c r="W78" s="4" t="s">
         <v>2148</v>
-      </c>
-      <c r="S78" s="4" t="s">
-        <v>2149</v>
-      </c>
-      <c r="T78" s="4" t="s">
-        <v>2144</v>
-      </c>
-      <c r="U78" s="4" t="s">
-        <v>2150</v>
-      </c>
-      <c r="V78" s="4" t="s">
-        <v>2151</v>
-      </c>
-      <c r="W78" s="4" t="s">
-        <v>2152</v>
       </c>
       <c r="X78" s="4" t="s">
         <v>48</v>
@@ -24689,49 +25127,49 @@
         <v>8888</v>
       </c>
       <c r="I79" s="4" t="s">
+        <v>2149</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>2150</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>2151</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>2152</v>
+      </c>
+      <c r="M79" s="4" t="s">
         <v>2153</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>2154</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>2155</v>
-      </c>
-      <c r="L79" s="4" t="s">
-        <v>2156</v>
-      </c>
-      <c r="M79" s="4" t="s">
-        <v>2157</v>
       </c>
       <c r="N79" s="4" t="s">
         <v>110</v>
       </c>
       <c r="O79" s="4" t="s">
+        <v>2154</v>
+      </c>
+      <c r="P79" s="4" t="s">
+        <v>2155</v>
+      </c>
+      <c r="Q79" s="4" t="s">
+        <v>2156</v>
+      </c>
+      <c r="R79" s="4" t="s">
+        <v>2157</v>
+      </c>
+      <c r="S79" s="4" t="s">
         <v>2158</v>
       </c>
-      <c r="P79" s="4" t="s">
+      <c r="T79" s="4" t="s">
+        <v>2153</v>
+      </c>
+      <c r="U79" s="4" t="s">
         <v>2159</v>
       </c>
-      <c r="Q79" s="4" t="s">
+      <c r="V79" s="4" t="s">
         <v>2160</v>
       </c>
-      <c r="R79" s="4" t="s">
+      <c r="W79" s="4" t="s">
         <v>2161</v>
-      </c>
-      <c r="S79" s="4" t="s">
-        <v>2162</v>
-      </c>
-      <c r="T79" s="4" t="s">
-        <v>2157</v>
-      </c>
-      <c r="U79" s="4" t="s">
-        <v>2163</v>
-      </c>
-      <c r="V79" s="4" t="s">
-        <v>2164</v>
-      </c>
-      <c r="W79" s="4" t="s">
-        <v>2165</v>
       </c>
       <c r="X79" s="4" t="s">
         <v>48</v>
@@ -24769,49 +25207,49 @@
         <v>8888</v>
       </c>
       <c r="I80" s="4" t="s">
+        <v>2162</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>2163</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>2164</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>2165</v>
+      </c>
+      <c r="M80" s="4" t="s">
         <v>2166</v>
       </c>
-      <c r="J80" s="4" t="s">
+      <c r="N80" s="4" t="s">
         <v>2167</v>
       </c>
-      <c r="K80" s="4" t="s">
+      <c r="O80" s="4" t="s">
         <v>2168</v>
       </c>
-      <c r="L80" s="4" t="s">
+      <c r="P80" s="4" t="s">
         <v>2169</v>
       </c>
-      <c r="M80" s="4" t="s">
+      <c r="Q80" s="4" t="s">
         <v>2170</v>
       </c>
-      <c r="N80" s="4" t="s">
+      <c r="R80" s="4" t="s">
         <v>2171</v>
       </c>
-      <c r="O80" s="4" t="s">
+      <c r="S80" s="4" t="s">
         <v>2172</v>
       </c>
-      <c r="P80" s="4" t="s">
+      <c r="T80" s="4" t="s">
+        <v>2166</v>
+      </c>
+      <c r="U80" s="4" t="s">
         <v>2173</v>
       </c>
-      <c r="Q80" s="4" t="s">
+      <c r="V80" s="4" t="s">
         <v>2174</v>
       </c>
-      <c r="R80" s="4" t="s">
+      <c r="W80" s="4" t="s">
         <v>2175</v>
-      </c>
-      <c r="S80" s="4" t="s">
-        <v>2176</v>
-      </c>
-      <c r="T80" s="4" t="s">
-        <v>2170</v>
-      </c>
-      <c r="U80" s="4" t="s">
-        <v>2177</v>
-      </c>
-      <c r="V80" s="4" t="s">
-        <v>2178</v>
-      </c>
-      <c r="W80" s="4" t="s">
-        <v>2179</v>
       </c>
       <c r="X80" s="4" t="s">
         <v>48</v>
@@ -24849,49 +25287,49 @@
         <v>8888</v>
       </c>
       <c r="I81" s="4" t="s">
+        <v>2176</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>2177</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>2178</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>2179</v>
+      </c>
+      <c r="M81" s="4" t="s">
         <v>2180</v>
       </c>
-      <c r="J81" s="4" t="s">
+      <c r="N81" s="4" t="s">
         <v>2181</v>
       </c>
-      <c r="K81" s="4" t="s">
+      <c r="O81" s="4" t="s">
         <v>2182</v>
       </c>
-      <c r="L81" s="4" t="s">
+      <c r="P81" s="4" t="s">
         <v>2183</v>
       </c>
-      <c r="M81" s="4" t="s">
+      <c r="Q81" s="4" t="s">
         <v>2184</v>
       </c>
-      <c r="N81" s="4" t="s">
+      <c r="R81" s="4" t="s">
         <v>2185</v>
       </c>
-      <c r="O81" s="4" t="s">
+      <c r="S81" s="4" t="s">
         <v>2186</v>
       </c>
-      <c r="P81" s="4" t="s">
+      <c r="T81" s="4" t="s">
+        <v>2180</v>
+      </c>
+      <c r="U81" s="4" t="s">
         <v>2187</v>
       </c>
-      <c r="Q81" s="4" t="s">
+      <c r="V81" s="4" t="s">
         <v>2188</v>
       </c>
-      <c r="R81" s="4" t="s">
+      <c r="W81" s="4" t="s">
         <v>2189</v>
-      </c>
-      <c r="S81" s="4" t="s">
-        <v>2190</v>
-      </c>
-      <c r="T81" s="4" t="s">
-        <v>2184</v>
-      </c>
-      <c r="U81" s="4" t="s">
-        <v>2191</v>
-      </c>
-      <c r="V81" s="4" t="s">
-        <v>2192</v>
-      </c>
-      <c r="W81" s="4" t="s">
-        <v>2193</v>
       </c>
       <c r="X81" s="4" t="s">
         <v>48</v>
@@ -24929,49 +25367,49 @@
         <v>8888</v>
       </c>
       <c r="I82" s="4" t="s">
+        <v>2190</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>2191</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>2192</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>2193</v>
+      </c>
+      <c r="M82" s="4" t="s">
         <v>2194</v>
       </c>
-      <c r="J82" s="4" t="s">
+      <c r="N82" s="4" t="s">
         <v>2195</v>
       </c>
-      <c r="K82" s="4" t="s">
+      <c r="O82" s="4" t="s">
         <v>2196</v>
       </c>
-      <c r="L82" s="4" t="s">
+      <c r="P82" s="4" t="s">
         <v>2197</v>
       </c>
-      <c r="M82" s="4" t="s">
+      <c r="Q82" s="4" t="s">
         <v>2198</v>
       </c>
-      <c r="N82" s="4" t="s">
+      <c r="R82" s="4" t="s">
         <v>2199</v>
       </c>
-      <c r="O82" s="4" t="s">
+      <c r="S82" s="4" t="s">
         <v>2200</v>
       </c>
-      <c r="P82" s="4" t="s">
+      <c r="T82" s="4" t="s">
+        <v>2194</v>
+      </c>
+      <c r="U82" s="4" t="s">
         <v>2201</v>
       </c>
-      <c r="Q82" s="4" t="s">
+      <c r="V82" s="4" t="s">
         <v>2202</v>
       </c>
-      <c r="R82" s="4" t="s">
+      <c r="W82" s="4" t="s">
         <v>2203</v>
-      </c>
-      <c r="S82" s="4" t="s">
-        <v>2204</v>
-      </c>
-      <c r="T82" s="4" t="s">
-        <v>2198</v>
-      </c>
-      <c r="U82" s="4" t="s">
-        <v>2205</v>
-      </c>
-      <c r="V82" s="4" t="s">
-        <v>2206</v>
-      </c>
-      <c r="W82" s="4" t="s">
-        <v>2207</v>
       </c>
       <c r="X82" s="4" t="s">
         <v>48</v>
@@ -25009,49 +25447,49 @@
         <v>8888</v>
       </c>
       <c r="I83" s="4" t="s">
+        <v>2204</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>2205</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>2206</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>2207</v>
+      </c>
+      <c r="M83" s="4" t="s">
         <v>2208</v>
       </c>
-      <c r="J83" s="4" t="s">
+      <c r="N83" s="4" t="s">
         <v>2209</v>
       </c>
-      <c r="K83" s="4" t="s">
+      <c r="O83" s="4" t="s">
         <v>2210</v>
       </c>
-      <c r="L83" s="4" t="s">
+      <c r="P83" s="4" t="s">
         <v>2211</v>
       </c>
-      <c r="M83" s="4" t="s">
+      <c r="Q83" s="4" t="s">
         <v>2212</v>
       </c>
-      <c r="N83" s="4" t="s">
+      <c r="R83" s="4" t="s">
         <v>2213</v>
       </c>
-      <c r="O83" s="4" t="s">
+      <c r="S83" s="4" t="s">
         <v>2214</v>
       </c>
-      <c r="P83" s="4" t="s">
+      <c r="T83" s="4" t="s">
+        <v>2208</v>
+      </c>
+      <c r="U83" s="4" t="s">
         <v>2215</v>
       </c>
-      <c r="Q83" s="4" t="s">
+      <c r="V83" s="4" t="s">
         <v>2216</v>
       </c>
-      <c r="R83" s="4" t="s">
+      <c r="W83" s="4" t="s">
         <v>2217</v>
-      </c>
-      <c r="S83" s="4" t="s">
-        <v>2218</v>
-      </c>
-      <c r="T83" s="4" t="s">
-        <v>2212</v>
-      </c>
-      <c r="U83" s="4" t="s">
-        <v>2219</v>
-      </c>
-      <c r="V83" s="4" t="s">
-        <v>2220</v>
-      </c>
-      <c r="W83" s="4" t="s">
-        <v>2221</v>
       </c>
       <c r="X83" s="4" t="s">
         <v>48</v>
@@ -25089,49 +25527,49 @@
         <v>8888</v>
       </c>
       <c r="I84" s="4" t="s">
+        <v>2218</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>2219</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>2220</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>2221</v>
+      </c>
+      <c r="M84" s="4" t="s">
         <v>2222</v>
       </c>
-      <c r="J84" s="4" t="s">
+      <c r="N84" s="4" t="s">
         <v>2223</v>
       </c>
-      <c r="K84" s="4" t="s">
+      <c r="O84" s="4" t="s">
         <v>2224</v>
       </c>
-      <c r="L84" s="4" t="s">
+      <c r="P84" s="4" t="s">
         <v>2225</v>
       </c>
-      <c r="M84" s="4" t="s">
+      <c r="Q84" s="4" t="s">
         <v>2226</v>
       </c>
-      <c r="N84" s="4" t="s">
+      <c r="R84" s="4" t="s">
         <v>2227</v>
       </c>
-      <c r="O84" s="4" t="s">
+      <c r="S84" s="4" t="s">
         <v>2228</v>
       </c>
-      <c r="P84" s="4" t="s">
+      <c r="T84" s="4" t="s">
+        <v>2222</v>
+      </c>
+      <c r="U84" s="4" t="s">
         <v>2229</v>
       </c>
-      <c r="Q84" s="4" t="s">
+      <c r="V84" s="4" t="s">
         <v>2230</v>
       </c>
-      <c r="R84" s="4" t="s">
+      <c r="W84" s="4" t="s">
         <v>2231</v>
-      </c>
-      <c r="S84" s="4" t="s">
-        <v>2232</v>
-      </c>
-      <c r="T84" s="4" t="s">
-        <v>2226</v>
-      </c>
-      <c r="U84" s="4" t="s">
-        <v>2233</v>
-      </c>
-      <c r="V84" s="4" t="s">
-        <v>2234</v>
-      </c>
-      <c r="W84" s="4" t="s">
-        <v>2235</v>
       </c>
       <c r="X84" s="4" t="s">
         <v>48</v>
@@ -25169,49 +25607,49 @@
         <v>8888</v>
       </c>
       <c r="I85" s="4" t="s">
+        <v>2232</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>2233</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>2234</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>2235</v>
+      </c>
+      <c r="M85" s="4" t="s">
         <v>2236</v>
       </c>
-      <c r="J85" s="4" t="s">
+      <c r="N85" s="4" t="s">
         <v>2237</v>
       </c>
-      <c r="K85" s="4" t="s">
+      <c r="O85" s="4" t="s">
         <v>2238</v>
       </c>
-      <c r="L85" s="4" t="s">
+      <c r="P85" s="4" t="s">
         <v>2239</v>
       </c>
-      <c r="M85" s="4" t="s">
+      <c r="Q85" s="4" t="s">
         <v>2240</v>
       </c>
-      <c r="N85" s="4" t="s">
+      <c r="R85" s="4" t="s">
         <v>2241</v>
       </c>
-      <c r="O85" s="4" t="s">
+      <c r="S85" s="4" t="s">
         <v>2242</v>
       </c>
-      <c r="P85" s="4" t="s">
+      <c r="T85" s="4" t="s">
+        <v>2236</v>
+      </c>
+      <c r="U85" s="4" t="s">
         <v>2243</v>
       </c>
-      <c r="Q85" s="4" t="s">
+      <c r="V85" s="4" t="s">
         <v>2244</v>
       </c>
-      <c r="R85" s="4" t="s">
+      <c r="W85" s="4" t="s">
         <v>2245</v>
-      </c>
-      <c r="S85" s="4" t="s">
-        <v>2246</v>
-      </c>
-      <c r="T85" s="4" t="s">
-        <v>2240</v>
-      </c>
-      <c r="U85" s="4" t="s">
-        <v>2247</v>
-      </c>
-      <c r="V85" s="4" t="s">
-        <v>2248</v>
-      </c>
-      <c r="W85" s="4" t="s">
-        <v>2249</v>
       </c>
       <c r="X85" s="4" t="s">
         <v>48</v>
